--- a/docs/cuadrosfiguraSAN.xlsx
+++ b/docs/cuadrosfiguraSAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Oferta Prods Agrícolas" sheetId="1" state="visible" r:id="rId2"/>
@@ -7068,8 +7068,12 @@
   </sheetPr>
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="T16" activeCellId="0" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -8911,8 +8915,8 @@
   </sheetPr>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>

--- a/docs/cuadrosfiguraSAN.xlsx
+++ b/docs/cuadrosfiguraSAN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="0" windowWidth="17660" windowHeight="18000" tabRatio="978" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="11140" yWindow="0" windowWidth="17660" windowHeight="18000" tabRatio="978" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Oferta Prods Agrícolas" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="Oferta monetaria" sheetId="9" r:id="rId9"/>
     <sheet name="Utilización Monetaria" sheetId="10" r:id="rId10"/>
     <sheet name="Cuentas de producción e ingreso" sheetId="11" r:id="rId11"/>
+    <sheet name="Consumo fertilizantes" sheetId="12" r:id="rId12"/>
+    <sheet name="Calorías per cápita" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="191">
   <si>
     <t>Cuadro 1</t>
   </si>
@@ -593,16 +595,68 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Consumo de fertilizantes (kilogramos por hectárea de tierras cultivables)</t>
+  </si>
+  <si>
+    <t>Fertilizantes y nutrientes</t>
+  </si>
+  <si>
+    <t>Consumo de fertilizantes</t>
+  </si>
+  <si>
+    <t>Años 2002-2013</t>
+  </si>
+  <si>
+    <t>(kg/ha de tierras cultivables)</t>
+  </si>
+  <si>
+    <t>Fuente: FAO (2016).</t>
+  </si>
+  <si>
+    <t>Caloría vegetal</t>
+  </si>
+  <si>
+    <t>Caloría animal</t>
+  </si>
+  <si>
+    <t>Caloría total</t>
+  </si>
+  <si>
+    <t>Disponibilidad de calorías totales</t>
+  </si>
+  <si>
+    <t>Años 2005-2013</t>
+  </si>
+  <si>
+    <t>(calorías per cápita diarias)</t>
+  </si>
+  <si>
+    <t>Fuente: Ine (2013)</t>
+  </si>
+  <si>
+    <t>Figura 3</t>
+  </si>
+  <si>
+    <t>Datos  figura</t>
+  </si>
+  <si>
+    <t>Porcentajes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -649,6 +703,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -658,7 +719,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -677,12 +738,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -721,8 +792,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -734,6 +823,1117 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calorías per cápita'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Caloría vegetal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Calorías per cápita'!$A$30:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calorías per cápita'!$B$30:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1757.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2182.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2144.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2391.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2909.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2792.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2796.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2676.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2423.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calorías per cápita'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Caloría animal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Calorías per cápita'!$A$30:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calorías per cápita'!$C$30:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>491.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>418.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>349.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>314.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>293.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>420.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>232.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2078781136"/>
+        <c:axId val="-2073121136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2078781136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2073121136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2073121136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2078781136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2481,10 +3681,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK13"/>
+  <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2701,6 +3901,55 @@
         <v>676754.25739278505</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2709,43 +3958,42 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="53" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>154</v>
@@ -2766,7 +4014,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>135</v>
       </c>
@@ -2789,8 +4037,24 @@
         <f t="shared" ref="G7:G20" si="0">F7/F$20*100</f>
         <v>1.5110683172813986</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" s="7">
+        <f t="shared" ref="I7:K20" si="1">B7/B$20*100</f>
+        <v>0.15715929392153821</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92151912024157745</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3526447246895672</v>
+      </c>
+      <c r="L7" s="7">
+        <f>E7/E$20*100</f>
+        <v>1.005750721809799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>136</v>
       </c>
@@ -2813,8 +4077,24 @@
         <f t="shared" si="0"/>
         <v>0.87794492124045109</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11635589325767497</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="1"/>
+        <v>1.6691981098449387</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="1"/>
+        <v>2.376739486033046E-2</v>
+      </c>
+      <c r="L8" s="7">
+        <f>E8/E$20*100</f>
+        <v>0.44073124118970219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>137</v>
       </c>
@@ -2837,8 +4117,24 @@
         <f t="shared" si="0"/>
         <v>0.61958943535242694</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.27224170649796903</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.45130396497574604</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5365710742309813</v>
+      </c>
+      <c r="L9" s="7">
+        <f>E9/E$20*100</f>
+        <v>0.19211491799784128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>138</v>
       </c>
@@ -2861,8 +4157,24 @@
         <f t="shared" si="0"/>
         <v>0.89670652870978318</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0886517683435686</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1372861209660802</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8769482212744544</v>
+      </c>
+      <c r="L10" s="7">
+        <f>E10/E$20*100</f>
+        <v>0.4896229131012792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>139</v>
       </c>
@@ -2885,8 +4197,24 @@
         <f t="shared" si="0"/>
         <v>2.4786657716824321</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.22415860933099382</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29105739792473889</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="1"/>
+        <v>8.9195290334954187</v>
+      </c>
+      <c r="L11" s="7">
+        <f>E11/E$20*100</f>
+        <v>0.83106501552093148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>140</v>
       </c>
@@ -2909,8 +4237,24 @@
         <f t="shared" si="0"/>
         <v>1.1062751816437142</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2754379221730916</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1646797533969517</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1243019272530637</v>
+      </c>
+      <c r="L12" s="7">
+        <f>E12/E$20*100</f>
+        <v>0.30932772611482873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>141</v>
       </c>
@@ -2933,8 +4277,24 @@
         <f t="shared" si="0"/>
         <v>0.98184829580843425</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.65948632504429128</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="1"/>
+        <v>1.266640644830703</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.88773668967818808</v>
+      </c>
+      <c r="L13" s="7">
+        <f>E13/E$20*100</f>
+        <v>0.67147866724478833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>142</v>
       </c>
@@ -2957,8 +4317,24 @@
         <f t="shared" si="0"/>
         <v>2.3189643714846109</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.13293556629552944</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8520382265337583</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="1"/>
+        <v>4.8022051989899106</v>
+      </c>
+      <c r="L14" s="7">
+        <f>E14/E$20*100</f>
+        <v>1.2016098716606602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>143</v>
       </c>
@@ -2981,8 +4357,24 @@
         <f t="shared" si="0"/>
         <v>0.64180398539834393</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.44272224631252161</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.16768816515306056</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="1"/>
+        <v>2.016961409272406</v>
+      </c>
+      <c r="L15" s="7">
+        <f>E15/E$20*100</f>
+        <v>0.29386087222935864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>144</v>
       </c>
@@ -3005,8 +4397,24 @@
         <f t="shared" si="0"/>
         <v>0.20455299171222541</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30555326693475304</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32387839919282424</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1557894725845046</v>
+      </c>
+      <c r="L16" s="7">
+        <f>E16/E$20*100</f>
+        <v>7.6481080857155867E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>145</v>
       </c>
@@ -3029,8 +4437,24 @@
         <f t="shared" si="0"/>
         <v>26.687341787773729</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>29.472315974262415</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="1"/>
+        <v>24.606392866514799</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="1"/>
+        <v>28.682427446877725</v>
+      </c>
+      <c r="L17" s="7">
+        <f>E17/E$20*100</f>
+        <v>28.002824139395639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>146</v>
       </c>
@@ -3053,8 +4477,24 @@
         <f t="shared" si="0"/>
         <v>2.1575323753218703</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I18" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4968084609823209</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="1"/>
+        <v>3.8627539499941759</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="1"/>
+        <v>1.6088725508608373E-4</v>
+      </c>
+      <c r="L18" s="7">
+        <f>E18/E$20*100</f>
+        <v>1.42398137263791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>147</v>
       </c>
@@ -3077,8 +4517,24 @@
         <f t="shared" si="0"/>
         <v>59.517706036590525</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I19" s="7">
+        <f t="shared" si="1"/>
+        <v>65.356172966643427</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="1"/>
+        <v>63.285563280430637</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="1"/>
+        <v>44.62095651953836</v>
+      </c>
+      <c r="L19" s="7">
+        <f>E19/E$20*100</f>
+        <v>65.061151460240112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -3101,10 +4557,486 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L20" s="7">
+        <f>E20/E$20*100</f>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="30"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="30"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="30"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="30"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="30"/>
+    </row>
+    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <v>2002</v>
+      </c>
+      <c r="B8" s="11">
+        <v>99.790175438596492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <v>2003</v>
+      </c>
+      <c r="B9" s="11">
+        <v>91.671826625386998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
+        <v>2004</v>
+      </c>
+      <c r="B10" s="11">
+        <v>124.94625000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
+        <v>2005</v>
+      </c>
+      <c r="B11" s="11">
+        <v>141.69071428571428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="26">
+        <v>2006</v>
+      </c>
+      <c r="B12" s="11">
+        <v>136.04382470119521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="26">
+        <v>2007</v>
+      </c>
+      <c r="B13" s="11">
+        <v>123.7734771573604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="26">
+        <v>2008</v>
+      </c>
+      <c r="B14" s="11">
+        <v>92.005283018867928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
+        <v>2009</v>
+      </c>
+      <c r="B15" s="11">
+        <v>127.06855791962175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="26">
+        <v>2010</v>
+      </c>
+      <c r="B16" s="11">
+        <v>189.14955521369808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
+        <v>2011</v>
+      </c>
+      <c r="B17" s="11">
+        <v>223.1941817924745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="26">
+        <v>2012</v>
+      </c>
+      <c r="B18" s="11">
+        <v>250.16492372277821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>2013</v>
+      </c>
+      <c r="B19" s="28">
+        <v>255.49017652338685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="32">
+        <v>2005</v>
+      </c>
+      <c r="B30" s="32">
+        <v>1757</v>
+      </c>
+      <c r="C30" s="32">
+        <v>491</v>
+      </c>
+      <c r="D30" s="32">
+        <f>SUM(B30:C30)</f>
+        <v>2248</v>
+      </c>
+      <c r="F30" s="32">
+        <v>2005</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="32">
+        <v>2006</v>
+      </c>
+      <c r="B31" s="32">
+        <v>2182</v>
+      </c>
+      <c r="C31" s="32">
+        <v>411</v>
+      </c>
+      <c r="D31" s="32">
+        <f t="shared" ref="D31:D38" si="0">SUM(B31:C31)</f>
+        <v>2593</v>
+      </c>
+      <c r="F31" s="32">
+        <v>2006</v>
+      </c>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="32">
+        <v>2007</v>
+      </c>
+      <c r="B32" s="32">
+        <v>2144</v>
+      </c>
+      <c r="C32" s="32">
+        <v>418</v>
+      </c>
+      <c r="D32" s="32">
+        <f t="shared" si="0"/>
+        <v>2562</v>
+      </c>
+      <c r="F32" s="32">
+        <v>2007</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="32">
+        <v>2008</v>
+      </c>
+      <c r="B33" s="32">
+        <v>2391</v>
+      </c>
+      <c r="C33" s="32">
+        <v>349</v>
+      </c>
+      <c r="D33" s="32">
+        <f t="shared" si="0"/>
+        <v>2740</v>
+      </c>
+      <c r="F33" s="32">
+        <v>2008</v>
+      </c>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="32">
+        <v>2009</v>
+      </c>
+      <c r="B34" s="32">
+        <v>2909</v>
+      </c>
+      <c r="C34" s="32">
+        <v>314</v>
+      </c>
+      <c r="D34" s="32">
+        <f t="shared" si="0"/>
+        <v>3223</v>
+      </c>
+      <c r="F34" s="32">
+        <v>2009</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="32">
+        <v>2010</v>
+      </c>
+      <c r="B35" s="32">
+        <v>2792</v>
+      </c>
+      <c r="C35" s="32">
+        <v>425</v>
+      </c>
+      <c r="D35" s="32">
+        <f t="shared" si="0"/>
+        <v>3217</v>
+      </c>
+      <c r="F35" s="32">
+        <v>2010</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="32">
+        <v>2011</v>
+      </c>
+      <c r="B36" s="32">
+        <v>2796</v>
+      </c>
+      <c r="C36" s="32">
+        <v>293</v>
+      </c>
+      <c r="D36" s="32">
+        <f t="shared" si="0"/>
+        <v>3089</v>
+      </c>
+      <c r="F36" s="32">
+        <v>2011</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="32">
+        <v>2012</v>
+      </c>
+      <c r="B37" s="32">
+        <v>2676</v>
+      </c>
+      <c r="C37" s="32">
+        <v>420</v>
+      </c>
+      <c r="D37" s="32">
+        <f t="shared" si="0"/>
+        <v>3096</v>
+      </c>
+      <c r="F37" s="32">
+        <v>2012</v>
+      </c>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="32">
+        <v>2013</v>
+      </c>
+      <c r="B38" s="32">
+        <v>2423</v>
+      </c>
+      <c r="C38" s="32">
+        <v>232</v>
+      </c>
+      <c r="D38" s="32">
+        <f t="shared" si="0"/>
+        <v>2655</v>
+      </c>
+      <c r="F38" s="32">
+        <v>2013</v>
+      </c>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D30:D38" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9018,10 +10950,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A4" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9030,7 +10962,7 @@
     <col min="2" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>95</v>
       </c>
@@ -9043,7 +10975,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>96</v>
       </c>
@@ -9056,7 +10988,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>97</v>
       </c>
@@ -9069,7 +11001,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
@@ -9082,7 +11014,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>98</v>
       </c>
@@ -9095,7 +11027,7 @@
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>99</v>
@@ -9122,7 +11054,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -9150,8 +11082,9 @@
       <c r="I7" s="9">
         <v>2569739259.9149199</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -9179,8 +11112,9 @@
       <c r="I8" s="9">
         <v>1433998152.56497</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -9208,8 +11142,9 @@
       <c r="I9" s="9">
         <v>670418977.89874303</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -9237,8 +11172,9 @@
       <c r="I10" s="9">
         <v>56178995.368562199</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -9266,8 +11202,9 @@
       <c r="I11" s="9">
         <v>4819393423.9791002</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -9295,8 +11232,9 @@
       <c r="I12" s="9">
         <v>156494783.120231</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -9324,8 +11262,9 @@
       <c r="I13" s="9">
         <v>2672319.4391717501</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>106</v>
       </c>
@@ -9353,8 +11292,9 @@
       <c r="I14" s="9">
         <v>817281.99388686195</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -9382,8 +11322,9 @@
       <c r="I15" s="9">
         <v>124480070.612846</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -9411,8 +11352,9 @@
       <c r="I16" s="9">
         <v>12695274.525811501</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -9440,8 +11382,9 @@
       <c r="I17" s="9">
         <v>130905998.17559899</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
@@ -9469,8 +11412,9 @@
       <c r="I18" s="9">
         <v>278816582.23354203</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
@@ -9498,8 +11442,9 @@
       <c r="I19" s="9">
         <v>3619141.1316</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -9527,8 +11472,9 @@
       <c r="I20" s="9">
         <v>91845671.0466232</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>107</v>
       </c>
@@ -9556,8 +11502,9 @@
       <c r="I21" s="9">
         <v>200943973.448513</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>108</v>
       </c>
@@ -9585,8 +11532,9 @@
       <c r="I22" s="9">
         <v>80351449.4001517</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>109</v>
       </c>
@@ -9614,8 +11562,9 @@
       <c r="I23" s="9">
         <v>161272669.18539</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>110</v>
       </c>
@@ -9643,8 +11592,9 @@
       <c r="I24" s="9">
         <v>428134559.79486799</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>111</v>
       </c>
@@ -9672,8 +11622,9 @@
       <c r="I25" s="9">
         <v>90363654.795937702</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>112</v>
       </c>
@@ -9701,8 +11652,9 @@
       <c r="I26" s="9">
         <v>2875173808.06599</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -9730,8 +11682,9 @@
       <c r="I27" s="9">
         <v>28093581.304467399</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>22</v>
       </c>
@@ -9759,8 +11712,9 @@
       <c r="I28" s="9">
         <v>17699413.399346899</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
@@ -9788,8 +11742,9 @@
       <c r="I29" s="9">
         <v>18492579.855480701</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>17</v>
       </c>
@@ -9817,8 +11772,9 @@
       <c r="I30" s="9">
         <v>931612203.55445004</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>25</v>
       </c>
@@ -9846,8 +11802,9 @@
       <c r="I31" s="9">
         <v>640766.37104970496</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>113</v>
       </c>
@@ -9875,8 +11832,9 @@
       <c r="I32" s="9">
         <v>193103918.05677199</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>114</v>
       </c>
@@ -9904,8 +11862,9 @@
       <c r="I33" s="9">
         <v>2264092.6783230002</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>19</v>
       </c>
@@ -9933,8 +11892,9 @@
       <c r="I34" s="9">
         <v>35607815.451540202</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
@@ -9962,8 +11922,9 @@
       <c r="I35" s="9">
         <v>51347892.767319001</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>115</v>
       </c>
@@ -9991,8 +11952,9 @@
       <c r="I36" s="9">
         <v>17117279.240500301</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>116</v>
       </c>
@@ -10020,8 +11982,9 @@
       <c r="I37" s="9">
         <v>74526649.596314698</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>117</v>
       </c>
@@ -10049,8 +12012,9 @@
       <c r="I38" s="9">
         <v>534375923.81106102</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
@@ -10078,8 +12042,9 @@
       <c r="I39" s="9">
         <v>42752778.796714097</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>43</v>
       </c>
@@ -10107,8 +12072,9 @@
       <c r="I40" s="9">
         <v>4811514151.04743</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -10136,8 +12102,9 @@
       <c r="I41" s="9">
         <v>135900.24138198001</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>118</v>
       </c>
@@ -10165,8 +12132,9 @@
       <c r="I42" s="9">
         <v>135461841.74758801</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>119</v>
       </c>
@@ -10194,8 +12162,9 @@
       <c r="I43" s="9">
         <v>12342437.3380189</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -10223,8 +12192,9 @@
       <c r="I44" s="9">
         <v>6168010.4674088201</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>38</v>
       </c>
@@ -10252,8 +12222,9 @@
       <c r="I45" s="9">
         <v>15498414.9428245</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>120</v>
       </c>
@@ -10281,8 +12252,9 @@
       <c r="I46" s="9">
         <v>25693117.569694601</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -10319,9 +12291,39 @@
         <v>21142764814.934147</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C51" s="7">
+        <f>C40/$I40*100</f>
+        <v>56.074627272226294</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" ref="D51:I51" si="1">D40/$I40*100</f>
+        <v>23.479991900091647</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34864230395397711</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" si="1"/>
+        <v>16.734830591401366</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3619079323268202</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="1"/>
+        <v>43.925372727773905</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -10339,10 +12341,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10351,32 +12353,32 @@
     <col min="2" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="66" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="66" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>124</v>
@@ -10415,7 +12417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>135</v>
       </c>
@@ -10456,8 +12458,16 @@
         <f t="shared" ref="M7:M23" si="0">SUM(B7:L7)</f>
         <v>732.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="23">
+        <f>SUM(M7:M13)</f>
+        <v>3826.4</v>
+      </c>
+      <c r="O7" s="22">
+        <f>N7/N$23*100</f>
+        <v>0.73501544504412986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>136</v>
       </c>
@@ -10498,8 +12508,12 @@
         <f t="shared" si="0"/>
         <v>218.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O8" s="22">
+        <f t="shared" ref="O8:O23" si="1">N8/N$23*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>137</v>
       </c>
@@ -10540,8 +12554,12 @@
         <f t="shared" si="0"/>
         <v>115.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>138</v>
       </c>
@@ -10582,8 +12600,12 @@
         <f t="shared" si="0"/>
         <v>1230.0999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>139</v>
       </c>
@@ -10624,8 +12646,12 @@
         <f t="shared" si="0"/>
         <v>871.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O11" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>140</v>
       </c>
@@ -10666,8 +12692,12 @@
         <f t="shared" si="0"/>
         <v>439.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O12" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>141</v>
       </c>
@@ -10708,8 +12738,12 @@
         <f t="shared" si="0"/>
         <v>218.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>142</v>
       </c>
@@ -10750,8 +12784,16 @@
         <f t="shared" si="0"/>
         <v>1658.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="23">
+        <f>M14</f>
+        <v>1658.5</v>
+      </c>
+      <c r="O14" s="22">
+        <f t="shared" si="1"/>
+        <v>0.31858224848570177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>143</v>
       </c>
@@ -10792,8 +12834,16 @@
         <f t="shared" si="0"/>
         <v>1019.4000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="23">
+        <f t="shared" ref="N15:N23" si="2">M15</f>
+        <v>1019.4000000000001</v>
+      </c>
+      <c r="O15" s="22">
+        <f t="shared" si="1"/>
+        <v>0.19581715050125079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>144</v>
       </c>
@@ -10834,8 +12884,16 @@
         <f t="shared" si="0"/>
         <v>176.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="23">
+        <f t="shared" si="2"/>
+        <v>176.8</v>
+      </c>
+      <c r="O16" s="22">
+        <f t="shared" si="1"/>
+        <v>3.3961616841888503E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>145</v>
       </c>
@@ -10876,8 +12934,16 @@
         <f t="shared" si="0"/>
         <v>105114</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="23">
+        <f t="shared" si="2"/>
+        <v>105114</v>
+      </c>
+      <c r="O17" s="22">
+        <f t="shared" si="1"/>
+        <v>20.191410592297895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>146</v>
       </c>
@@ -10918,8 +12984,16 @@
         <f t="shared" si="0"/>
         <v>74172.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="23">
+        <f t="shared" si="2"/>
+        <v>74172.5</v>
+      </c>
+      <c r="O18" s="22">
+        <f t="shared" si="1"/>
+        <v>14.247839509077911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>147</v>
       </c>
@@ -10960,8 +13034,16 @@
         <f t="shared" si="0"/>
         <v>60077.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="23">
+        <f t="shared" si="2"/>
+        <v>60077.5</v>
+      </c>
+      <c r="O19" s="22">
+        <f t="shared" si="1"/>
+        <v>11.540322600783689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -11002,8 +13084,16 @@
         <f t="shared" si="0"/>
         <v>247676.00000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="23">
+        <f t="shared" si="2"/>
+        <v>247676.00000000003</v>
+      </c>
+      <c r="O20" s="22">
+        <f t="shared" si="1"/>
+        <v>47.576229711151456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -11044,8 +13134,16 @@
         <f t="shared" si="0"/>
         <v>22129.399999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="23">
+        <f t="shared" si="2"/>
+        <v>22129.399999999998</v>
+      </c>
+      <c r="O21" s="22">
+        <f t="shared" si="1"/>
+        <v>4.2508495686701773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>148</v>
       </c>
@@ -11086,58 +13184,88 @@
         <f t="shared" si="0"/>
         <v>4737.1999999999989</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="23">
+        <f t="shared" si="2"/>
+        <v>4737.1999999999989</v>
+      </c>
+      <c r="O22" s="22">
+        <f t="shared" si="1"/>
+        <v>0.90997155714589462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="8">
-        <f t="shared" ref="B23:L23" si="1">SUM(B7:B22)</f>
+        <f t="shared" ref="B23:L23" si="3">SUM(B7:B22)</f>
         <v>247381.8</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25402.5</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34178.5</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44416.499999999993</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52970.100000000006</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23802.500000000004</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3299.8999999999996</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14559.8</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4123.8999999999996</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40980.199999999997</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29471.999999999996</v>
       </c>
       <c r="M23" s="8">
         <f t="shared" si="0"/>
         <v>520587.70000000007</v>
+      </c>
+      <c r="N23" s="23">
+        <f t="shared" si="2"/>
+        <v>520587.70000000007</v>
+      </c>
+      <c r="O23" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D27" s="7">
+        <f>B20/$M$23*100</f>
+        <v>39.968289684908029</v>
+      </c>
+      <c r="E27" s="7">
+        <f>I20/$M$23*100</f>
+        <v>1.3340883774242072</v>
+      </c>
+      <c r="F27" s="7">
+        <f>L20/$M$23*100</f>
+        <v>1.2772295618970635</v>
       </c>
     </row>
   </sheetData>
@@ -11150,8 +13278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11160,7 +13288,7 @@
     <col min="2" max="1025" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>149</v>
       </c>
@@ -11170,7 +13298,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>150</v>
       </c>
@@ -11180,7 +13308,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -11190,7 +13318,7 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -11200,7 +13328,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>152</v>
       </c>
@@ -11210,7 +13338,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" ht="40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="40" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>153</v>
@@ -11228,7 +13356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>156</v>
       </c>
@@ -11247,8 +13375,12 @@
       <c r="F7" s="17">
         <v>61145.121938784403</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="25">
+        <f>F7/F$13*100</f>
+        <v>9.0350533122512005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>157</v>
       </c>
@@ -11267,8 +13399,12 @@
       <c r="F8" s="17">
         <v>10507.1675182256</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="25">
+        <f t="shared" ref="G8:G13" si="0">F8/F$13*100</f>
+        <v>1.5525820487031601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>158</v>
       </c>
@@ -11287,8 +13423,12 @@
       <c r="F9" s="17">
         <v>4957.8112940324299</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.732586475148579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>159</v>
       </c>
@@ -11307,8 +13447,12 @@
       <c r="F10" s="17">
         <v>6400.7108355999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="25">
+        <f t="shared" si="0"/>
+        <v>0.94579521312995896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>160</v>
       </c>
@@ -11327,8 +13471,12 @@
       <c r="F11" s="17">
         <v>1474.23556453893</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="25">
+        <f t="shared" si="0"/>
+        <v>0.21783907690561358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>161</v>
       </c>
@@ -11347,8 +13495,12 @@
       <c r="F12" s="17">
         <v>592269.36508758098</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="25">
+        <f t="shared" si="0"/>
+        <v>87.516143873861537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>8</v>
       </c>
@@ -11366,6 +13518,10 @@
       </c>
       <c r="F13" s="18">
         <v>676754.41223876202</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/docs/cuadrosfiguraSAN.xlsx
+++ b/docs/cuadrosfiguraSAN.xlsx
@@ -9,24 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="0" windowWidth="17660" windowHeight="18000" tabRatio="978" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="10980" yWindow="460" windowWidth="17660" windowHeight="17540" tabRatio="978" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Oferta Prods Agrícolas" sheetId="1" r:id="rId1"/>
-    <sheet name="Utilización Prods Agrícolas" sheetId="2" r:id="rId2"/>
-    <sheet name="Oferta Piscícola" sheetId="3" r:id="rId3"/>
-    <sheet name="Utilización Piscícola" sheetId="4" r:id="rId4"/>
-    <sheet name="Oferta al. procesados" sheetId="5" r:id="rId5"/>
-    <sheet name="Utilización de al. procesados" sheetId="6" r:id="rId6"/>
-    <sheet name="Utilización de agua" sheetId="7" r:id="rId7"/>
-    <sheet name="Utilización de energía" sheetId="8" r:id="rId8"/>
-    <sheet name="Oferta monetaria" sheetId="9" r:id="rId9"/>
-    <sheet name="Utilización Monetaria" sheetId="10" r:id="rId10"/>
-    <sheet name="Cuentas de producción e ingreso" sheetId="11" r:id="rId11"/>
-    <sheet name="Consumo fertilizantes" sheetId="12" r:id="rId12"/>
-    <sheet name="Calorías per cápita" sheetId="13" r:id="rId13"/>
+    <sheet name="Indice" sheetId="14" r:id="rId1"/>
+    <sheet name="Oferta Prods Agrícolas" sheetId="1" r:id="rId2"/>
+    <sheet name="Utilización Prods Agrícolas" sheetId="2" r:id="rId3"/>
+    <sheet name="Oferta Piscícola" sheetId="3" r:id="rId4"/>
+    <sheet name="Utilización Piscícola" sheetId="4" r:id="rId5"/>
+    <sheet name="Oferta al. procesados" sheetId="5" r:id="rId6"/>
+    <sheet name="Utilización de al. procesados" sheetId="6" r:id="rId7"/>
+    <sheet name="Utilización de agua" sheetId="7" r:id="rId8"/>
+    <sheet name="Utilización de energía" sheetId="8" r:id="rId9"/>
+    <sheet name="Oferta monetaria" sheetId="9" r:id="rId10"/>
+    <sheet name="Utilización Monetaria" sheetId="10" r:id="rId11"/>
+    <sheet name="Cuentas de producción e ingreso" sheetId="11" r:id="rId12"/>
+    <sheet name="Consumo fertilizantes" sheetId="12" r:id="rId13"/>
+    <sheet name="Calorías per cápita" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="198">
   <si>
     <t>Cuadro 1</t>
   </si>
@@ -326,13 +327,7 @@
     <t>Los demás azúcares ncp</t>
   </si>
   <si>
-    <t>Cuadro 7</t>
-  </si>
-  <si>
     <t>Recursos hídricos y energéticos</t>
-  </si>
-  <si>
-    <t>Utilización de agua</t>
   </si>
   <si>
     <t>(hectáreas y metros cúbicos)</t>
@@ -646,6 +641,33 @@
   <si>
     <t>Porcentajes</t>
   </si>
+  <si>
+    <t>Cuenta Ambiental y Económica de Seguridad Alimentaria (Caesan)</t>
+  </si>
+  <si>
+    <t>Instituto de Investigación y Proyección sobre Ambiente y Economía (Iarna)</t>
+  </si>
+  <si>
+    <t>Índice</t>
+  </si>
+  <si>
+    <t>Oferta de productos agrícolas (2010)</t>
+  </si>
+  <si>
+    <t>Utilización de productos agrícolas (2010)</t>
+  </si>
+  <si>
+    <t>(estructura porcentual de volúmen de la producción)</t>
+  </si>
+  <si>
+    <t>Cuadro Xb</t>
+  </si>
+  <si>
+    <t>Cuadro Xa</t>
+  </si>
+  <si>
+    <t>Utilización de tierra y agua para cultivo</t>
+  </si>
 </sst>
 </file>
 
@@ -656,7 +678,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -709,6 +731,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -777,23 +805,15 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -809,6 +829,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1169,11 +1199,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2078781136"/>
-        <c:axId val="-2073121136"/>
+        <c:axId val="-2066727520"/>
+        <c:axId val="-2066741472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2078781136"/>
+        <c:axId val="-2066727520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,7 +1246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073121136"/>
+        <c:crossAx val="-2066741472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1224,7 +1254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073121136"/>
+        <c:axId val="-2066741472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,7 +1305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078781136"/>
+        <c:crossAx val="-2066727520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2199,46 +2229,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2246,1430 +2327,201 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
-    </row>
-    <row r="6" spans="1:12" ht="40" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:7" ht="40" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6">
-        <v>242595</v>
-      </c>
-      <c r="C7" s="6">
-        <v>243.50989999999999</v>
-      </c>
-      <c r="D7" s="6">
-        <v>38.854999999999997</v>
-      </c>
-      <c r="E7" s="6">
-        <v>242877.36489999999</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" ref="F7:F44" si="0">B7/B$44*100</f>
-        <v>0.82667515077747344</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" ref="G7:G44" si="1">E7/E$44*100</f>
-        <v>0.78908472485076842</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" ref="J7:J30" si="2">B7/$E7*100</f>
-        <v>99.883741780500529</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" ref="K7:K30" si="3">C7/$E7*100</f>
-        <v>0.1002604339437973</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" ref="L7:L30" si="4">D7/$E7*100</f>
-        <v>1.5997785555684773E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2637570</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2136.38</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2639706.38</v>
-      </c>
-      <c r="F8" s="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="16">
+        <v>32835.921788489999</v>
+      </c>
+      <c r="C7" s="16">
+        <v>3907.452472856</v>
+      </c>
+      <c r="D7" s="16">
+        <v>272.95976329539798</v>
+      </c>
+      <c r="E7" s="16">
+        <v>24128.787914142998</v>
+      </c>
+      <c r="F7" s="16">
+        <v>61145.121938784403</v>
+      </c>
+      <c r="G7" s="21">
+        <f>F7/F$13*100</f>
+        <v>9.0350533122512005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="16">
+        <v>8277.8242064999995</v>
+      </c>
+      <c r="C8" s="16">
+        <v>105.47016000000001</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.44287029564899999</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2123.4302814299999</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10507.1675182256</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" ref="G8:G13" si="0">F8/F$13*100</f>
+        <v>1.5525820487031601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="16">
+        <v>3651.7692291399999</v>
+      </c>
+      <c r="C9" s="16">
+        <v>32.157426999999998</v>
+      </c>
+      <c r="D9" s="16">
+        <v>20.3759557554332</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1253.5086821370001</v>
+      </c>
+      <c r="F9" s="16">
+        <v>4957.8112940324299</v>
+      </c>
+      <c r="G9" s="21">
         <f t="shared" si="0"/>
-        <v>8.9878751723495558</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="1"/>
-        <v>8.5761469925644676</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7">
-        <f t="shared" si="2"/>
-        <v>99.919067513864931</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <f t="shared" si="4"/>
-        <v>8.0932486135067802E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6">
-        <v>22556.3</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>35.433</v>
-      </c>
-      <c r="E9" s="6">
-        <v>22591.733</v>
-      </c>
-      <c r="F9" s="7">
+        <v>0.732586475148579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="16">
+        <v>3551.0487908</v>
+      </c>
+      <c r="C10" s="16">
+        <v>66.691987400000002</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.53814399999999996</v>
+      </c>
+      <c r="E10" s="16">
+        <v>2782.4319134000002</v>
+      </c>
+      <c r="F10" s="16">
+        <v>6400.7108355999999</v>
+      </c>
+      <c r="G10" s="21">
         <f t="shared" si="0"/>
-        <v>7.6863631581367803E-2</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="1"/>
-        <v>7.3398323575961308E-2</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="2"/>
-        <v>99.84315944243852</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <f t="shared" si="4"/>
-        <v>0.15684055756147613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6">
-        <v>2327800</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.53808100000000003</v>
-      </c>
-      <c r="D10" s="6">
-        <v>630100</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2957900.5380810001</v>
-      </c>
-      <c r="F10" s="7">
+        <v>0.94579521312995896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="16">
+        <v>881.86071189999996</v>
+      </c>
+      <c r="C11" s="16">
+        <v>95.006200000000007</v>
+      </c>
+      <c r="D11" s="16">
+        <v>6.6813186389299997</v>
+      </c>
+      <c r="E11" s="16">
+        <v>490.68733400000002</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1474.23556453893</v>
+      </c>
+      <c r="G11" s="21">
         <f t="shared" si="0"/>
-        <v>7.9322921576281571</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="1"/>
-        <v>9.6099285875757854</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="2"/>
-        <v>78.697710420993701</v>
-      </c>
-      <c r="K10" s="7">
-        <f t="shared" si="3"/>
-        <v>1.8191314855674335E-5</v>
-      </c>
-      <c r="L10" s="7">
-        <f t="shared" si="4"/>
-        <v>21.302271387691437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6">
-        <v>47406.9</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>88.707999999999998</v>
-      </c>
-      <c r="E11" s="6">
-        <v>47495.608</v>
-      </c>
-      <c r="F11" s="7">
+        <v>0.21783907690561358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="16">
+        <v>485864.60847843799</v>
+      </c>
+      <c r="C12" s="16">
+        <v>116612.31823600001</v>
+      </c>
+      <c r="D12" s="16">
+        <v>20571.265760605402</v>
+      </c>
+      <c r="E12" s="16">
+        <v>-30778.827387462901</v>
+      </c>
+      <c r="F12" s="16">
+        <v>592269.36508758098</v>
+      </c>
+      <c r="G12" s="21">
         <f t="shared" si="0"/>
-        <v>0.16154539955643193</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="1"/>
-        <v>0.15430856961796671</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="2"/>
-        <v>99.813229046357293</v>
-      </c>
-      <c r="K11" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <f t="shared" si="4"/>
-        <v>0.18677095364270313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6">
-        <v>29592.5</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>67584.7</v>
-      </c>
-      <c r="E12" s="6">
-        <v>97177.2</v>
-      </c>
-      <c r="F12" s="7">
+        <v>87.516143873861537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="17">
+        <v>535063.03320526797</v>
+      </c>
+      <c r="C13" s="17">
+        <v>120819.096483256</v>
+      </c>
+      <c r="D13" s="17">
+        <v>20872.263812590802</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1.8737647136958899E-2</v>
+      </c>
+      <c r="F13" s="17">
+        <v>676754.41223876202</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="0"/>
-        <v>0.10084043116874784</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="1"/>
-        <v>0.31571918673994182</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="2"/>
-        <v>30.452101933375321</v>
-      </c>
-      <c r="K12" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <f t="shared" si="4"/>
-        <v>69.547898066624683</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1492.86</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>492356</v>
-      </c>
-      <c r="E13" s="6">
-        <v>493848.86</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>5.0871216042773296E-3</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="1"/>
-        <v>1.6044664844392245</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="2"/>
-        <v>0.3022908668858727</v>
-      </c>
-      <c r="K13" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <f t="shared" si="4"/>
-        <v>99.697709133114131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="6">
-        <v>21458.5</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2875.52</v>
-      </c>
-      <c r="E14" s="6">
-        <v>24334.02</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>7.3122730159147609E-2</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="1"/>
-        <v>7.9058843067236748E-2</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="2"/>
-        <v>88.183127982963768</v>
-      </c>
-      <c r="K14" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <f t="shared" si="4"/>
-        <v>11.816872017036232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="6">
-        <v>441066</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>23900</v>
-      </c>
-      <c r="E15" s="6">
-        <v>464966</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>1.5029918261003612</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="1"/>
-        <v>1.510628906592532</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="2"/>
-        <v>94.859839214050055</v>
-      </c>
-      <c r="K15" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <f t="shared" si="4"/>
-        <v>5.1401607859499405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="6">
-        <v>24119</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>225.941</v>
-      </c>
-      <c r="E16" s="6">
-        <v>24344.940999999999</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>8.2188742396182457E-2</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="1"/>
-        <v>7.9094324324552115E-2</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="2"/>
-        <v>99.071918062976621</v>
-      </c>
-      <c r="K16" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" si="4"/>
-        <v>0.92808193702338415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="6">
-        <v>480994</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>3905.17</v>
-      </c>
-      <c r="E17" s="6">
-        <v>484899.17</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>1.6390518661681404</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5753898198679606</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="2"/>
-        <v>99.194642878023487</v>
-      </c>
-      <c r="K17" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <f t="shared" si="4"/>
-        <v>0.80535712197651321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="6">
-        <v>17619.3</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3.669</v>
-      </c>
-      <c r="E18" s="6">
-        <v>17622.969000000001</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>6.0040138849084018E-2</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="1"/>
-        <v>5.7255296927913195E-2</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="2"/>
-        <v>99.97918057961742</v>
-      </c>
-      <c r="K18" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <f t="shared" si="4"/>
-        <v>2.081942038257004E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="6">
-        <v>47763.3</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>21.731000000000002</v>
-      </c>
-      <c r="E19" s="6">
-        <v>47785.031000000003</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>0.16275988057927698</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="1"/>
-        <v>0.15524887654370481</v>
-      </c>
-      <c r="J19" s="7">
-        <f t="shared" si="2"/>
-        <v>99.954523415502223</v>
-      </c>
-      <c r="K19" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <f t="shared" si="4"/>
-        <v>4.5476584497768771E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="6">
-        <v>56807.9</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>49.104999999999997</v>
-      </c>
-      <c r="E20" s="6">
-        <v>56857.004999999997</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>0.19358057378697677</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" si="1"/>
-        <v>0.18472282983116212</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" si="2"/>
-        <v>99.913634212706071</v>
-      </c>
-      <c r="K20" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <f t="shared" si="4"/>
-        <v>8.6365787293931504E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="6">
-        <v>33490.9</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>435.21199999999999</v>
-      </c>
-      <c r="E21" s="6">
-        <v>33926.112000000001</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>0.11412475445567009</v>
-      </c>
-      <c r="G21" s="7">
-        <f t="shared" si="1"/>
-        <v>0.11022260869718598</v>
-      </c>
-      <c r="J21" s="7">
-        <f t="shared" si="2"/>
-        <v>98.717176904916187</v>
-      </c>
-      <c r="K21" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <f t="shared" si="4"/>
-        <v>1.2828230950838102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="6">
-        <v>13743.9</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1747.68</v>
-      </c>
-      <c r="E22" s="6">
-        <v>15491.58</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>4.6834191161279154E-2</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" si="1"/>
-        <v>5.0330623221462936E-2</v>
-      </c>
-      <c r="J22" s="7">
-        <f t="shared" si="2"/>
-        <v>88.7185167684639</v>
-      </c>
-      <c r="K22" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
-        <f t="shared" si="4"/>
-        <v>11.281483231536098</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="6">
-        <v>5800.31</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>5800.31</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>1.976533788332854E-2</v>
-      </c>
-      <c r="G23" s="7">
-        <f t="shared" si="1"/>
-        <v>1.8844638001913536E-2</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K23" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1362470</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.36045899999999997</v>
-      </c>
-      <c r="D24" s="6">
-        <v>32030.2</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1394500.5604590001</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>4.6428001099766449</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="1"/>
-        <v>4.5305954777098805</v>
-      </c>
-      <c r="J24" s="7">
-        <f t="shared" si="2"/>
-        <v>97.703080130103558</v>
-      </c>
-      <c r="K24" s="7">
-        <f t="shared" si="3"/>
-        <v>2.5848609188178083E-5</v>
-      </c>
-      <c r="L24" s="7">
-        <f t="shared" si="4"/>
-        <v>2.2968940212872524</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="6">
-        <v>480434</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>377.88600000000002</v>
-      </c>
-      <c r="E25" s="6">
-        <v>480811.886</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>1.6371435907113694</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5621106352397232</v>
-      </c>
-      <c r="J25" s="7">
-        <f t="shared" si="2"/>
-        <v>99.921406685025246</v>
-      </c>
-      <c r="K25" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <f t="shared" si="4"/>
-        <v>7.8593314974746697E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="6">
-        <v>105909</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>73.629000000000005</v>
-      </c>
-      <c r="E26" s="6">
-        <v>105982.629</v>
-      </c>
-      <c r="F26" s="7">
-        <f t="shared" si="0"/>
-        <v>0.3608991881270901</v>
-      </c>
-      <c r="G26" s="7">
-        <f t="shared" si="1"/>
-        <v>0.34432716147862846</v>
-      </c>
-      <c r="J26" s="7">
-        <f t="shared" si="2"/>
-        <v>99.930527294241784</v>
-      </c>
-      <c r="K26" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="7">
-        <f t="shared" si="4"/>
-        <v>6.9472705758223841E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="6">
-        <v>19412.2</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E27" s="6">
-        <v>19412.226999999999</v>
-      </c>
-      <c r="F27" s="7">
-        <f t="shared" si="0"/>
-        <v>6.6149687182021355E-2</v>
-      </c>
-      <c r="G27" s="7">
-        <f t="shared" si="1"/>
-        <v>6.3068420588894725E-2</v>
-      </c>
-      <c r="J27" s="7">
-        <f t="shared" si="2"/>
-        <v>99.999860912403321</v>
-      </c>
-      <c r="K27" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="7">
-        <f t="shared" si="4"/>
-        <v>1.3908759669871985E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="6">
-        <v>984820</v>
-      </c>
-      <c r="C28" s="6">
-        <v>64.006240000000005</v>
-      </c>
-      <c r="D28" s="6">
-        <v>84264.3</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1069148.3062400001</v>
-      </c>
-      <c r="F28" s="7">
-        <f t="shared" si="0"/>
-        <v>3.3559068488166339</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="1"/>
-        <v>3.4735579307746991</v>
-      </c>
-      <c r="J28" s="7">
-        <f t="shared" si="2"/>
-        <v>92.112571684599359</v>
-      </c>
-      <c r="K28" s="7">
-        <f t="shared" si="3"/>
-        <v>5.986656820801438E-3</v>
-      </c>
-      <c r="L28" s="7">
-        <f t="shared" si="4"/>
-        <v>7.8814416585798286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="6">
-        <v>38193.800000000003</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>8764.1299999999992</v>
-      </c>
-      <c r="E29" s="6">
-        <v>46957.93</v>
-      </c>
-      <c r="F29" s="7">
-        <f t="shared" si="0"/>
-        <v>0.13015051989432869</v>
-      </c>
-      <c r="G29" s="7">
-        <f t="shared" si="1"/>
-        <v>0.1525617065586487</v>
-      </c>
-      <c r="J29" s="7">
-        <f t="shared" si="2"/>
-        <v>81.336208814996752</v>
-      </c>
-      <c r="K29" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="7">
-        <f t="shared" si="4"/>
-        <v>18.663791185003255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="6">
-        <v>7755.3</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>3813.37</v>
-      </c>
-      <c r="E30" s="6">
-        <v>11568.67</v>
-      </c>
-      <c r="F30" s="7">
-        <f t="shared" si="0"/>
-        <v>2.6427229731958775E-2</v>
-      </c>
-      <c r="G30" s="7">
-        <f t="shared" si="1"/>
-        <v>3.7585473589100762E-2</v>
-      </c>
-      <c r="J30" s="7">
-        <f t="shared" si="2"/>
-        <v>67.037092422897359</v>
-      </c>
-      <c r="K30" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="7">
-        <f t="shared" si="4"/>
-        <v>32.962907577102641</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="6">
-        <v>0</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="7">
-        <f>IF($E31=0,0,B31/$E31*100)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="7">
-        <f>IF($E31=0,0,C31/$E31*100)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="7">
-        <f>IF($E31=0,0,D31/$E31*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="6">
-        <v>415780</v>
-      </c>
-      <c r="C32" s="6">
-        <v>2587.6999999999998</v>
-      </c>
-      <c r="D32" s="6">
-        <v>15926.3</v>
-      </c>
-      <c r="E32" s="6">
-        <v>434294</v>
-      </c>
-      <c r="F32" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4168263739576574</v>
-      </c>
-      <c r="G32" s="7">
-        <f t="shared" si="1"/>
-        <v>1.4109785884552786</v>
-      </c>
-      <c r="J32" s="7">
-        <f t="shared" ref="J32:J43" si="5">B32/$E32*100</f>
-        <v>95.736989228494991</v>
-      </c>
-      <c r="K32" s="7">
-        <f t="shared" ref="K32:K43" si="6">C32/$E32*100</f>
-        <v>0.59584060567265495</v>
-      </c>
-      <c r="L32" s="7">
-        <f t="shared" ref="L32:L43" si="7">D32/$E32*100</f>
-        <v>3.6671701658323625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="6">
-        <v>10770.3</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E33" s="6">
-        <v>10770.342000000001</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" si="0"/>
-        <v>3.6701248485824609E-2</v>
-      </c>
-      <c r="G33" s="7">
-        <f t="shared" si="1"/>
-        <v>3.4991784257532001E-2</v>
-      </c>
-      <c r="J33" s="7">
-        <f t="shared" si="5"/>
-        <v>99.999610040238267</v>
-      </c>
-      <c r="K33" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="7">
-        <f t="shared" si="7"/>
-        <v>3.8995976172344387E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="6">
-        <v>1873.68</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1873.68</v>
-      </c>
-      <c r="F34" s="7">
-        <f t="shared" si="0"/>
-        <v>6.3848170675765634E-3</v>
-      </c>
-      <c r="G34" s="7">
-        <f t="shared" si="1"/>
-        <v>6.0874024545973151E-3</v>
-      </c>
-      <c r="J34" s="7">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="K34" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="6">
-        <v>54633.3</v>
-      </c>
-      <c r="C35" s="6">
-        <v>817.84090000000003</v>
-      </c>
-      <c r="D35" s="6">
-        <v>19476.8</v>
-      </c>
-      <c r="E35" s="6">
-        <v>74927.940900000001</v>
-      </c>
-      <c r="F35" s="7">
-        <f t="shared" si="0"/>
-        <v>0.18617033127216528</v>
-      </c>
-      <c r="G35" s="7">
-        <f t="shared" si="1"/>
-        <v>0.24343352725790024</v>
-      </c>
-      <c r="J35" s="7">
-        <f t="shared" si="5"/>
-        <v>72.914455333711174</v>
-      </c>
-      <c r="K35" s="7">
-        <f t="shared" si="6"/>
-        <v>1.0915032365449668</v>
-      </c>
-      <c r="L35" s="7">
-        <f t="shared" si="7"/>
-        <v>25.994041429743863</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="6">
-        <v>627.99900000000002</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6">
-        <v>41.347000000000001</v>
-      </c>
-      <c r="E36" s="6">
-        <v>669.346</v>
-      </c>
-      <c r="F36" s="7">
-        <f t="shared" si="0"/>
-        <v>2.1399912117442757E-3</v>
-      </c>
-      <c r="G36" s="7">
-        <f t="shared" si="1"/>
-        <v>2.1746394706539506E-3</v>
-      </c>
-      <c r="J36" s="7">
-        <f t="shared" si="5"/>
-        <v>93.822776262202211</v>
-      </c>
-      <c r="K36" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="7">
-        <f t="shared" si="7"/>
-        <v>6.1772237377977905</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="6">
-        <v>10675.6</v>
-      </c>
-      <c r="C37" s="6">
-        <v>37.278599999999997</v>
-      </c>
-      <c r="D37" s="6">
-        <v>635.37</v>
-      </c>
-      <c r="E37" s="6">
-        <v>11348.248600000001</v>
-      </c>
-      <c r="F37" s="7">
-        <f t="shared" si="0"/>
-        <v>3.6378545475545643E-2</v>
-      </c>
-      <c r="G37" s="7">
-        <f t="shared" si="1"/>
-        <v>3.6869346090592073E-2</v>
-      </c>
-      <c r="J37" s="7">
-        <f t="shared" si="5"/>
-        <v>94.072665979488661</v>
-      </c>
-      <c r="K37" s="7">
-        <f t="shared" si="6"/>
-        <v>0.32849650473818481</v>
-      </c>
-      <c r="L37" s="7">
-        <f t="shared" si="7"/>
-        <v>5.5988375157731385</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="6">
-        <v>1421.38</v>
-      </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6">
-        <v>40.107999999999997</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1461.4880000000001</v>
-      </c>
-      <c r="F38" s="7">
-        <f t="shared" si="0"/>
-        <v>4.8435438727594763E-3</v>
-      </c>
-      <c r="G38" s="7">
-        <f t="shared" si="1"/>
-        <v>4.7482310952588072E-3</v>
-      </c>
-      <c r="J38" s="7">
-        <f t="shared" si="5"/>
-        <v>97.255673669575131</v>
-      </c>
-      <c r="K38" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="7">
-        <f t="shared" si="7"/>
-        <v>2.7443263304248817</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="6">
-        <v>5200.45</v>
-      </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6">
-        <v>2526.35</v>
-      </c>
-      <c r="E39" s="6">
-        <v>7726.8</v>
-      </c>
-      <c r="F39" s="7">
-        <f t="shared" si="0"/>
-        <v>1.7721234105652264E-2</v>
-      </c>
-      <c r="G39" s="7">
-        <f t="shared" si="1"/>
-        <v>2.510361496423217E-2</v>
-      </c>
-      <c r="J39" s="7">
-        <f t="shared" si="5"/>
-        <v>67.304058601232072</v>
-      </c>
-      <c r="K39" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="7">
-        <f t="shared" si="7"/>
-        <v>32.695941398767928</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="6">
-        <v>27532.2</v>
-      </c>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6">
-        <v>909.79200000000003</v>
-      </c>
-      <c r="E40" s="6">
-        <v>28441.991999999998</v>
-      </c>
-      <c r="F40" s="7">
-        <f t="shared" si="0"/>
-        <v>9.381968130520231E-2</v>
-      </c>
-      <c r="G40" s="7">
-        <f t="shared" si="1"/>
-        <v>9.2405240977347897E-2</v>
-      </c>
-      <c r="J40" s="7">
-        <f t="shared" si="5"/>
-        <v>96.801236706627307</v>
-      </c>
-      <c r="K40" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="7">
-        <f t="shared" si="7"/>
-        <v>3.1987632933727008</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="6">
-        <v>19364100</v>
-      </c>
-      <c r="C41" s="6">
-        <v>4231.59</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6">
-        <v>19368331.59</v>
-      </c>
-      <c r="F41" s="7">
-        <f t="shared" si="0"/>
-        <v>65.985779950823684</v>
-      </c>
-      <c r="G41" s="7">
-        <f t="shared" si="1"/>
-        <v>62.925808709289058</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="7">
-        <f t="shared" si="5"/>
-        <v>99.97815201593211</v>
-      </c>
-      <c r="K41" s="7">
-        <f t="shared" si="6"/>
-        <v>2.1847984067893584E-2</v>
-      </c>
-      <c r="L41" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="6">
-        <v>23.508099999999999</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6">
-        <v>24518.9</v>
-      </c>
-      <c r="E42" s="6">
-        <v>24542.408100000001</v>
-      </c>
-      <c r="F42" s="7">
-        <f t="shared" si="0"/>
-        <v>8.010701833092983E-5</v>
-      </c>
-      <c r="G42" s="7">
-        <f t="shared" si="1"/>
-        <v>7.9735875554880778E-2</v>
-      </c>
-      <c r="J42" s="7">
-        <f t="shared" si="5"/>
-        <v>9.5785629120884841E-2</v>
-      </c>
-      <c r="K42" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="7">
-        <f t="shared" si="7"/>
-        <v>99.904214370879117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="6">
-        <v>2358.79</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6">
-        <v>6877.13</v>
-      </c>
-      <c r="E43" s="6">
-        <v>9235.92</v>
-      </c>
-      <c r="F43" s="7">
-        <f t="shared" si="0"/>
-        <v>8.0378947583519718E-3</v>
-      </c>
-      <c r="G43" s="7">
-        <f t="shared" si="1"/>
-        <v>3.0006597753332715E-2</v>
-      </c>
-      <c r="J43" s="7">
-        <f t="shared" si="5"/>
-        <v>25.53930739980424</v>
-      </c>
-      <c r="K43" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="7">
-        <f t="shared" si="7"/>
-        <v>74.460692600195756</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="8">
-        <f>SUM(B7:B43)</f>
-        <v>29345868.177099999</v>
-      </c>
-      <c r="C44" s="8">
-        <f>SUM(C7:C43)</f>
-        <v>7982.8241799999996</v>
-      </c>
-      <c r="D44" s="8">
-        <f>SUM(D7:D43)</f>
-        <v>1425779.7849999997</v>
-      </c>
-      <c r="E44" s="8">
-        <f>SUM(E7:E43)</f>
-        <v>30779630.786280006</v>
-      </c>
-      <c r="F44" s="7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G44" s="7">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -3679,7 +2531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK21"/>
   <sheetViews>
@@ -3689,13 +2541,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.83203125" style="14"/>
+    <col min="1" max="1" width="18" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -3705,7 +2557,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -3715,7 +2567,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -3735,7 +2587,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -3744,9 +2596,9 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" ht="79" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -3755,200 +2607,200 @@
         <v>54</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="16">
+        <v>10503.570696242001</v>
+      </c>
+      <c r="C7" s="16">
+        <v>15203.742413600001</v>
+      </c>
+      <c r="D7" s="16">
+        <v>35932.796007999998</v>
+      </c>
+      <c r="E7" s="16">
+        <v>-494.9626667</v>
+      </c>
+      <c r="F7" s="16">
+        <v>61145.146451141998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="16">
+        <v>8366.8150000000005</v>
+      </c>
+      <c r="C8" s="16">
+        <v>18.913518</v>
+      </c>
+      <c r="D8" s="16">
+        <v>2007.9204999999999</v>
+      </c>
+      <c r="E8" s="16">
+        <v>113.51878170000001</v>
+      </c>
+      <c r="F8" s="16">
+        <v>10507.167799700001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="17">
-        <v>10503.570696242001</v>
-      </c>
-      <c r="C7" s="17">
-        <v>15203.742413600001</v>
-      </c>
-      <c r="D7" s="17">
-        <v>35932.796007999998</v>
-      </c>
-      <c r="E7" s="17">
-        <v>-494.9626667</v>
-      </c>
-      <c r="F7" s="17">
-        <v>61145.146451141998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="B9" s="16">
+        <v>947.02421719999995</v>
+      </c>
+      <c r="C9" s="16">
+        <v>51.073079999999997</v>
+      </c>
+      <c r="D9" s="16">
+        <v>3960.27</v>
+      </c>
+      <c r="E9" s="16">
+        <v>-0.56067164000000003</v>
+      </c>
+      <c r="F9" s="16">
+        <v>4957.8066255599997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="17">
-        <v>8366.8150000000005</v>
-      </c>
-      <c r="C8" s="17">
-        <v>18.913518</v>
-      </c>
-      <c r="D8" s="17">
-        <v>2007.9204999999999</v>
-      </c>
-      <c r="E8" s="17">
-        <v>113.51878170000001</v>
-      </c>
-      <c r="F8" s="17">
-        <v>10507.167799700001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="B10" s="16">
+        <v>1408.106102409</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2059.5865800000001</v>
+      </c>
+      <c r="D10" s="16">
+        <v>2863.9425620000002</v>
+      </c>
+      <c r="E10" s="16">
+        <v>69.064982000000001</v>
+      </c>
+      <c r="F10" s="16">
+        <v>6400.7002264089997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="17">
-        <v>947.02421719999995</v>
-      </c>
-      <c r="C9" s="17">
-        <v>51.073079999999997</v>
-      </c>
-      <c r="D9" s="17">
-        <v>3960.27</v>
-      </c>
-      <c r="E9" s="17">
-        <v>-0.56067164000000003</v>
-      </c>
-      <c r="F9" s="17">
-        <v>4957.8066255599997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="B11" s="16">
+        <v>298.92275890000002</v>
+      </c>
+      <c r="C11" s="16">
+        <v>544.4348</v>
+      </c>
+      <c r="D11" s="16">
+        <v>624.48170000000005</v>
+      </c>
+      <c r="E11" s="16">
+        <v>6.396541</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1474.2357999000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="17">
-        <v>1408.106102409</v>
-      </c>
-      <c r="C10" s="17">
-        <v>2059.5865800000001</v>
-      </c>
-      <c r="D10" s="17">
-        <v>2863.9425620000002</v>
-      </c>
-      <c r="E10" s="17">
-        <v>69.064982000000001</v>
-      </c>
-      <c r="F10" s="17">
-        <v>6400.7002264089997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="17">
-        <v>298.92275890000002</v>
-      </c>
-      <c r="C11" s="17">
-        <v>544.4348</v>
-      </c>
-      <c r="D11" s="17">
-        <v>624.48170000000005</v>
-      </c>
-      <c r="E11" s="17">
-        <v>6.396541</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1474.2357999000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>201298.38472517399</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>68069.856572300007</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>276241.98117629997</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>46658.978016300003</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>592269.200490074</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>222822.823499925</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>85947.606963900005</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>321631.39194629999</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>46352.434982660001</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>676754.25739278505</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3956,7 +2808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
@@ -3970,17 +2822,17 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3990,33 +2842,33 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="53" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="40" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="11">
         <v>3.2024699999999999</v>
@@ -4050,13 +2902,13 @@
         <v>3.3526447246895672</v>
       </c>
       <c r="L7" s="7">
-        <f>E7/E$20*100</f>
+        <f t="shared" ref="L7:L20" si="2">E7/E$20*100</f>
         <v>1.005750721809799</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="11">
         <v>2.3710100000000001</v>
@@ -4090,13 +2942,13 @@
         <v>2.376739486033046E-2</v>
       </c>
       <c r="L8" s="7">
-        <f>E8/E$20*100</f>
+        <f t="shared" si="2"/>
         <v>0.44073124118970219</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" s="11">
         <v>5.5475300000000001</v>
@@ -4130,13 +2982,13 @@
         <v>1.5365710742309813</v>
       </c>
       <c r="L9" s="7">
-        <f>E9/E$20*100</f>
+        <f t="shared" si="2"/>
         <v>0.19211491799784128</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10" s="11">
         <v>22.183700000000002</v>
@@ -4170,13 +3022,13 @@
         <v>2.8769482212744544</v>
       </c>
       <c r="L10" s="7">
-        <f>E10/E$20*100</f>
+        <f t="shared" si="2"/>
         <v>0.4896229131012792</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B11" s="11">
         <v>4.5677300000000001</v>
@@ -4210,13 +3062,13 @@
         <v>8.9195290334954187</v>
       </c>
       <c r="L11" s="7">
-        <f>E11/E$20*100</f>
+        <f t="shared" si="2"/>
         <v>0.83106501552093148</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B12" s="11">
         <v>5.61266</v>
@@ -4250,13 +3102,13 @@
         <v>2.1243019272530637</v>
       </c>
       <c r="L12" s="7">
-        <f>E12/E$20*100</f>
+        <f t="shared" si="2"/>
         <v>0.30932772611482873</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B13" s="11">
         <v>13.438499999999999</v>
@@ -4290,13 +3142,13 @@
         <v>0.88773668967818808</v>
       </c>
       <c r="L13" s="7">
-        <f>E13/E$20*100</f>
+        <f t="shared" si="2"/>
         <v>0.67147866724478833</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B14" s="11">
         <v>2.708857697</v>
@@ -4330,13 +3182,13 @@
         <v>4.8022051989899106</v>
       </c>
       <c r="L14" s="7">
-        <f>E14/E$20*100</f>
+        <f t="shared" si="2"/>
         <v>1.2016098716606602</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B15" s="11">
         <v>9.0214499999999997</v>
@@ -4370,13 +3222,13 @@
         <v>2.016961409272406</v>
       </c>
       <c r="L15" s="7">
-        <f>E15/E$20*100</f>
+        <f t="shared" si="2"/>
         <v>0.29386087222935864</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="11">
         <v>6.2263270999999998</v>
@@ -4410,13 +3262,13 @@
         <v>0.1557894725845046</v>
       </c>
       <c r="L16" s="7">
-        <f>E16/E$20*100</f>
+        <f t="shared" si="2"/>
         <v>7.6481080857155867E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B17" s="11">
         <v>600.56395891685202</v>
@@ -4450,13 +3302,13 @@
         <v>28.682427446877725</v>
       </c>
       <c r="L17" s="7">
-        <f>E17/E$20*100</f>
+        <f t="shared" si="2"/>
         <v>28.002824139395639</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B18" s="11">
         <v>30.500800000000002</v>
@@ -4490,13 +3342,13 @@
         <v>1.6088725508608373E-4</v>
       </c>
       <c r="L18" s="7">
-        <f>E18/E$20*100</f>
+        <f t="shared" si="2"/>
         <v>1.42398137263791</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="11">
         <v>1331.7773198</v>
@@ -4530,7 +3382,7 @@
         <v>44.62095651953836</v>
       </c>
       <c r="L19" s="7">
-        <f>E19/E$20*100</f>
+        <f t="shared" si="2"/>
         <v>65.061151460240112</v>
       </c>
     </row>
@@ -4538,22 +3390,22 @@
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>2037.7223135138499</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <v>136395.43362600001</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>72861.582439999998</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>100945.3513663</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>312240.08974581398</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4570,7 +3422,7 @@
         <v>100</v>
       </c>
       <c r="L20" s="7">
-        <f>E20/E$20*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -4580,7 +3432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -4594,46 +3446,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="30"/>
+      <c r="A1" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="26"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="26"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="30"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="B4" s="26"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="30"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="30"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:2" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+      <c r="A8" s="22">
         <v>2002</v>
       </c>
       <c r="B8" s="11">
@@ -4641,7 +3493,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="A9" s="22">
         <v>2003</v>
       </c>
       <c r="B9" s="11">
@@ -4649,7 +3501,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="A10" s="22">
         <v>2004</v>
       </c>
       <c r="B10" s="11">
@@ -4657,7 +3509,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+      <c r="A11" s="22">
         <v>2005</v>
       </c>
       <c r="B11" s="11">
@@ -4665,7 +3517,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+      <c r="A12" s="22">
         <v>2006</v>
       </c>
       <c r="B12" s="11">
@@ -4673,7 +3525,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+      <c r="A13" s="22">
         <v>2007</v>
       </c>
       <c r="B13" s="11">
@@ -4681,7 +3533,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+      <c r="A14" s="22">
         <v>2008</v>
       </c>
       <c r="B14" s="11">
@@ -4689,7 +3541,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
+      <c r="A15" s="22">
         <v>2009</v>
       </c>
       <c r="B15" s="11">
@@ -4697,7 +3549,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
+      <c r="A16" s="22">
         <v>2010</v>
       </c>
       <c r="B16" s="11">
@@ -4705,7 +3557,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+      <c r="A17" s="22">
         <v>2011</v>
       </c>
       <c r="B17" s="11">
@@ -4713,7 +3565,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="26">
+      <c r="A18" s="22">
         <v>2012</v>
       </c>
       <c r="B18" s="11">
@@ -4721,16 +3573,16 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
+      <c r="A19" s="23">
         <v>2013</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="24">
         <v>255.49017652338685</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
-        <v>180</v>
+      <c r="A20" s="27" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4738,298 +3590,298 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="F28" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="32" t="s">
+      <c r="A29" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="32" t="s">
+      <c r="F29" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="H29" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="32">
+      <c r="A30" s="28">
         <v>2005</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="28">
         <v>1757</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="28">
         <v>491</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="28">
         <f>SUM(B30:C30)</f>
         <v>2248</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="28">
         <v>2005</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="32">
+      <c r="A31" s="28">
         <v>2006</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="28">
         <v>2182</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="28">
         <v>411</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="28">
         <f t="shared" ref="D31:D38" si="0">SUM(B31:C31)</f>
         <v>2593</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="28">
         <v>2006</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="32">
+      <c r="A32" s="28">
         <v>2007</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="28">
         <v>2144</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="28">
         <v>418</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="28">
         <f t="shared" si="0"/>
         <v>2562</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="28">
         <v>2007</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="32">
+      <c r="A33" s="28">
         <v>2008</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="28">
         <v>2391</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="28">
         <v>349</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="28">
         <f t="shared" si="0"/>
         <v>2740</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="28">
         <v>2008</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="32">
+      <c r="A34" s="28">
         <v>2009</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="28">
         <v>2909</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="28">
         <v>314</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="28">
         <f t="shared" si="0"/>
         <v>3223</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="28">
         <v>2009</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="32">
+      <c r="A35" s="28">
         <v>2010</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="28">
         <v>2792</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="28">
         <v>425</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="28">
         <f t="shared" si="0"/>
         <v>3217</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="28">
         <v>2010</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="32">
+      <c r="A36" s="28">
         <v>2011</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="28">
         <v>2796</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="28">
         <v>293</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="28">
         <f t="shared" si="0"/>
         <v>3089</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="28">
         <v>2011</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="32">
+      <c r="A37" s="28">
         <v>2012</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="28">
         <v>2676</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="28">
         <v>420</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="28">
         <f t="shared" si="0"/>
         <v>3096</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="28">
         <v>2012</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="32">
+      <c r="A38" s="28">
         <v>2013</v>
       </c>
-      <c r="B38" s="32">
+      <c r="B38" s="28">
         <v>2423</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="28">
         <v>232</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="28">
         <f t="shared" si="0"/>
         <v>2655</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="28">
         <v>2013</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5042,14 +3894,783 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.83203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" ht="40" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6">
+        <v>242595</v>
+      </c>
+      <c r="C7" s="6">
+        <v>243.50989999999999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>38.854999999999997</v>
+      </c>
+      <c r="E7" s="6">
+        <v>242877.36489999999</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2637570</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2136.38</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2639706.38</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6">
+        <v>22556.3</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>35.433</v>
+      </c>
+      <c r="E9" s="6">
+        <v>22591.733</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2327800</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.53808100000000003</v>
+      </c>
+      <c r="D10" s="6">
+        <v>630100</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2957900.5380810001</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6">
+        <v>47406.9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>88.707999999999998</v>
+      </c>
+      <c r="E11" s="6">
+        <v>47495.608</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6">
+        <v>29592.5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>67584.7</v>
+      </c>
+      <c r="E12" s="6">
+        <v>97177.2</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1492.86</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>492356</v>
+      </c>
+      <c r="E13" s="6">
+        <v>493848.86</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6">
+        <v>21458.5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2875.52</v>
+      </c>
+      <c r="E14" s="6">
+        <v>24334.02</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6">
+        <v>441066</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>23900</v>
+      </c>
+      <c r="E15" s="6">
+        <v>464966</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6">
+        <v>24119</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>225.941</v>
+      </c>
+      <c r="E16" s="6">
+        <v>24344.940999999999</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6">
+        <v>480994</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3905.17</v>
+      </c>
+      <c r="E17" s="6">
+        <v>484899.17</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6">
+        <v>17619.3</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3.669</v>
+      </c>
+      <c r="E18" s="6">
+        <v>17622.969000000001</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6">
+        <v>47763.3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>21.731000000000002</v>
+      </c>
+      <c r="E19" s="6">
+        <v>47785.031000000003</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6">
+        <v>56807.9</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>49.104999999999997</v>
+      </c>
+      <c r="E20" s="6">
+        <v>56857.004999999997</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="6">
+        <v>33490.9</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>435.21199999999999</v>
+      </c>
+      <c r="E21" s="6">
+        <v>33926.112000000001</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="6">
+        <v>13743.9</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1747.68</v>
+      </c>
+      <c r="E22" s="6">
+        <v>15491.58</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="6">
+        <v>5800.31</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>5800.31</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1362470</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.36045899999999997</v>
+      </c>
+      <c r="D24" s="6">
+        <v>32030.2</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1394500.5604590001</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="6">
+        <v>480434</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>377.88600000000002</v>
+      </c>
+      <c r="E25" s="6">
+        <v>480811.886</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="6">
+        <v>105909</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>73.629000000000005</v>
+      </c>
+      <c r="E26" s="6">
+        <v>105982.629</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6">
+        <v>19412.2</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>19412.226999999999</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="6">
+        <v>984820</v>
+      </c>
+      <c r="C28" s="6">
+        <v>64.006240000000005</v>
+      </c>
+      <c r="D28" s="6">
+        <v>84264.3</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1069148.3062400001</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="6">
+        <v>38193.800000000003</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>8764.1299999999992</v>
+      </c>
+      <c r="E29" s="6">
+        <v>46957.93</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6">
+        <v>7755.3</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3813.37</v>
+      </c>
+      <c r="E30" s="6">
+        <v>11568.67</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="6">
+        <v>415780</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2587.6999999999998</v>
+      </c>
+      <c r="D32" s="6">
+        <v>15926.3</v>
+      </c>
+      <c r="E32" s="6">
+        <v>434294</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="6">
+        <v>10770.3</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>10770.342000000001</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1873.68</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1873.68</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="6">
+        <v>54633.3</v>
+      </c>
+      <c r="C35" s="6">
+        <v>817.84090000000003</v>
+      </c>
+      <c r="D35" s="6">
+        <v>19476.8</v>
+      </c>
+      <c r="E35" s="6">
+        <v>74927.940900000001</v>
+      </c>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="6">
+        <v>627.99900000000002</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>41.347000000000001</v>
+      </c>
+      <c r="E36" s="6">
+        <v>669.346</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="6">
+        <v>10675.6</v>
+      </c>
+      <c r="C37" s="6">
+        <v>37.278599999999997</v>
+      </c>
+      <c r="D37" s="6">
+        <v>635.37</v>
+      </c>
+      <c r="E37" s="6">
+        <v>11348.248600000001</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1421.38</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>40.107999999999997</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1461.4880000000001</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="6">
+        <v>5200.45</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>2526.35</v>
+      </c>
+      <c r="E39" s="6">
+        <v>7726.8</v>
+      </c>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="6">
+        <v>27532.2</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>909.79200000000003</v>
+      </c>
+      <c r="E40" s="6">
+        <v>28441.991999999998</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="6">
+        <v>19364100</v>
+      </c>
+      <c r="C41" s="6">
+        <v>4231.59</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>19368331.59</v>
+      </c>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="6">
+        <v>23.508099999999999</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>24518.9</v>
+      </c>
+      <c r="E42" s="6">
+        <v>24542.408100000001</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2358.79</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>6877.13</v>
+      </c>
+      <c r="E43" s="6">
+        <v>9235.92</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="8">
+        <f>SUM(B7:B43)</f>
+        <v>29345868.177099999</v>
+      </c>
+      <c r="C44" s="8">
+        <f>SUM(C7:C43)</f>
+        <v>7982.8241799999996</v>
+      </c>
+      <c r="D44" s="8">
+        <f>SUM(D7:D43)</f>
+        <v>1425779.7849999997</v>
+      </c>
+      <c r="E44" s="8">
+        <f>SUM(E7:E43)</f>
+        <v>30779630.786280006</v>
+      </c>
+      <c r="F44" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5059,29 +4680,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="M1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="M2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="25" t="s">
         <v>47</v>
       </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="M3" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="M4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="M5" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
     </row>
     <row r="6" spans="1:22" ht="40" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -8142,12 +7873,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8157,49 +7888,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
+      <c r="A1" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -8345,12 +8076,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8360,29 +8091,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A1" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="25" t="s">
         <v>59</v>
       </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="25" t="s">
         <v>68</v>
       </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:9" ht="40" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -8657,15 +8428,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8675,49 +8443,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
+      <c r="A1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -9093,1853 +8861,6 @@
       <c r="E27" s="8">
         <f>SUM(E7:E26)</f>
         <v>2992679.6775870002</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E7:E21">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF66CCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W28"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="66" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2117.21</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.627417</v>
-      </c>
-      <c r="G7" s="9">
-        <v>170.34129999999999</v>
-      </c>
-      <c r="H7" s="9">
-        <v>8100.24</v>
-      </c>
-      <c r="I7" s="9">
-        <v>611.98099999999999</v>
-      </c>
-      <c r="J7" s="9">
-        <v>24038.799999999999</v>
-      </c>
-      <c r="K7" s="9">
-        <v>35039.199717000003</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="11">
-        <f t="shared" ref="N7:N28" si="0">B7/$K7*100</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="11">
-        <f t="shared" ref="O7:O28" si="1">C7/$K7*100</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="11">
-        <f t="shared" ref="P7:P28" si="2">D7/$K7*100</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11">
-        <f t="shared" ref="Q7:Q28" si="3">E7/$K7*100</f>
-        <v>6.0424039849654196</v>
-      </c>
-      <c r="R7" s="11">
-        <f t="shared" ref="R7:R28" si="4">F7/$K7*100</f>
-        <v>1.7906145262090434E-3</v>
-      </c>
-      <c r="S7" s="11">
-        <f t="shared" ref="S7:S28" si="5">G7/$K7*100</f>
-        <v>0.48614495015808057</v>
-      </c>
-      <c r="T7" s="11">
-        <f t="shared" ref="T7:T28" si="6">H7/$K7*100</f>
-        <v>23.117651274637982</v>
-      </c>
-      <c r="U7" s="11">
-        <f t="shared" ref="U7:U28" si="7">I7/$K7*100</f>
-        <v>1.7465610086496484</v>
-      </c>
-      <c r="V7" s="11">
-        <f t="shared" ref="V7:V28" si="8">J7/$K7*100</f>
-        <v>68.605448167062647</v>
-      </c>
-      <c r="W7" s="11">
-        <f t="shared" ref="W7:W28" si="9">K7/$K7*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>52897.2</v>
-      </c>
-      <c r="K8" s="9">
-        <v>52897.2</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="11">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="W8" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>3253.5</v>
-      </c>
-      <c r="K9" s="9">
-        <v>3253.5</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="11">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="W9" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>31591.7</v>
-      </c>
-      <c r="K10" s="9">
-        <v>31591.7</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="11">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="W10" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>7.1343934899999999</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2.2339250000000002</v>
-      </c>
-      <c r="H11" s="9">
-        <v>32.865400000000001</v>
-      </c>
-      <c r="I11" s="9">
-        <v>2.70024</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>44.933958490000002</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <f t="shared" si="3"/>
-        <v>15.877509415485285</v>
-      </c>
-      <c r="R11" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="11">
-        <f t="shared" si="5"/>
-        <v>4.971574005653558</v>
-      </c>
-      <c r="T11" s="11">
-        <f t="shared" si="6"/>
-        <v>73.141563985096383</v>
-      </c>
-      <c r="U11" s="11">
-        <f t="shared" si="7"/>
-        <v>6.0093525937647696</v>
-      </c>
-      <c r="V11" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>186415</v>
-      </c>
-      <c r="K12" s="9">
-        <v>186415</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="11">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="W12" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P13" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R13" s="11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S13" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="11" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13" s="11" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W13" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>10936.7</v>
-      </c>
-      <c r="K14" s="9">
-        <v>10936.7</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="11">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="W14" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>236062.128</v>
-      </c>
-      <c r="F15" s="9">
-        <v>14122.7914</v>
-      </c>
-      <c r="G15" s="9">
-        <v>75642</v>
-      </c>
-      <c r="H15" s="9">
-        <v>12951.3</v>
-      </c>
-      <c r="I15" s="9">
-        <v>7288.18</v>
-      </c>
-      <c r="J15" s="9">
-        <v>22589.200000000001</v>
-      </c>
-      <c r="K15" s="9">
-        <v>368655.59940000001</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="11">
-        <f t="shared" si="3"/>
-        <v>64.033240885042687</v>
-      </c>
-      <c r="R15" s="11">
-        <f t="shared" si="4"/>
-        <v>3.830890246339766</v>
-      </c>
-      <c r="S15" s="11">
-        <f t="shared" si="5"/>
-        <v>20.51833747354171</v>
-      </c>
-      <c r="T15" s="11">
-        <f t="shared" si="6"/>
-        <v>3.5131163126448364</v>
-      </c>
-      <c r="U15" s="11">
-        <f t="shared" si="7"/>
-        <v>1.97696169863194</v>
-      </c>
-      <c r="V15" s="11">
-        <f t="shared" si="8"/>
-        <v>6.1274533837990575</v>
-      </c>
-      <c r="W15" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>20.94092247</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1.3877699999999999</v>
-      </c>
-      <c r="G16" s="9">
-        <v>85.184961999999999</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1256.5899999999999</v>
-      </c>
-      <c r="I16" s="9">
-        <v>-38.363399999999999</v>
-      </c>
-      <c r="J16" s="9">
-        <v>2131.4899999999998</v>
-      </c>
-      <c r="K16" s="9">
-        <v>3457.2302544700001</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="11">
-        <f t="shared" si="3"/>
-        <v>0.6057138497768435</v>
-      </c>
-      <c r="R16" s="11">
-        <f t="shared" si="4"/>
-        <v>4.014109266241938E-2</v>
-      </c>
-      <c r="S16" s="11">
-        <f t="shared" si="5"/>
-        <v>2.4639655368588986</v>
-      </c>
-      <c r="T16" s="11">
-        <f t="shared" si="6"/>
-        <v>36.346725774926362</v>
-      </c>
-      <c r="U16" s="11">
-        <f t="shared" si="7"/>
-        <v>-1.1096570715936067</v>
-      </c>
-      <c r="V16" s="11">
-        <f t="shared" si="8"/>
-        <v>61.653110817369075</v>
-      </c>
-      <c r="W16" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>4715.6469200000001</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1.32612</v>
-      </c>
-      <c r="G17" s="9">
-        <v>33.027999999999999</v>
-      </c>
-      <c r="H17" s="9">
-        <v>3357.73</v>
-      </c>
-      <c r="I17" s="9">
-        <v>33.910200000000003</v>
-      </c>
-      <c r="J17" s="9">
-        <v>9068.7000000000007</v>
-      </c>
-      <c r="K17" s="9">
-        <v>17210.341240000002</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="11">
-        <f t="shared" si="3"/>
-        <v>27.400077977768206</v>
-      </c>
-      <c r="R17" s="11">
-        <f t="shared" si="4"/>
-        <v>7.7053672644087547E-3</v>
-      </c>
-      <c r="S17" s="11">
-        <f t="shared" si="5"/>
-        <v>0.19190787410558047</v>
-      </c>
-      <c r="T17" s="11">
-        <f t="shared" si="6"/>
-        <v>19.509955980396352</v>
-      </c>
-      <c r="U17" s="11">
-        <f t="shared" si="7"/>
-        <v>0.19703386195031655</v>
-      </c>
-      <c r="V17" s="11">
-        <f t="shared" si="8"/>
-        <v>52.693318938515134</v>
-      </c>
-      <c r="W17" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>9463.1607999999997</v>
-      </c>
-      <c r="F18" s="9">
-        <v>736.274</v>
-      </c>
-      <c r="G18" s="9">
-        <v>80.530699999999996</v>
-      </c>
-      <c r="H18" s="9">
-        <v>70258.5</v>
-      </c>
-      <c r="I18" s="9">
-        <v>2274.88</v>
-      </c>
-      <c r="J18" s="9">
-        <v>32128.400000000001</v>
-      </c>
-      <c r="K18" s="9">
-        <v>114941.7455</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="11">
-        <f t="shared" si="3"/>
-        <v>8.2330059969378127</v>
-      </c>
-      <c r="R18" s="11">
-        <f t="shared" si="4"/>
-        <v>0.64056274489062803</v>
-      </c>
-      <c r="S18" s="11">
-        <f t="shared" si="5"/>
-        <v>7.0062186414247551E-2</v>
-      </c>
-      <c r="T18" s="11">
-        <f t="shared" si="6"/>
-        <v>61.125311517041467</v>
-      </c>
-      <c r="U18" s="11">
-        <f t="shared" si="7"/>
-        <v>1.9791590862868877</v>
-      </c>
-      <c r="V18" s="11">
-        <f t="shared" si="8"/>
-        <v>27.951898468428947</v>
-      </c>
-      <c r="W18" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>51925.8</v>
-      </c>
-      <c r="K19" s="9">
-        <v>51925.8</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="11">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="W19" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>1690.68</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1690.68</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="11">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="W20" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9">
-        <v>44884.800000000003</v>
-      </c>
-      <c r="K21" s="9">
-        <v>44884.800000000003</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N21" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="11">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="W21" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="9">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1743360</v>
-      </c>
-      <c r="K22" s="9">
-        <v>1743360</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N22" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="11">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="W22" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="9">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
-        <v>4.0945170559999999</v>
-      </c>
-      <c r="F23" s="9">
-        <v>2.0777647300000002</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0.14340172000000001</v>
-      </c>
-      <c r="H23" s="9">
-        <v>23.168700000000001</v>
-      </c>
-      <c r="I23" s="9">
-        <v>-3.8583699999999999</v>
-      </c>
-      <c r="J23" s="9">
-        <v>149.12100000000001</v>
-      </c>
-      <c r="K23" s="9">
-        <v>174.747013506</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="N23" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="11">
-        <f t="shared" si="3"/>
-        <v>2.343111320674681</v>
-      </c>
-      <c r="R23" s="11">
-        <f t="shared" si="4"/>
-        <v>1.1890130127623952</v>
-      </c>
-      <c r="S23" s="11">
-        <f t="shared" si="5"/>
-        <v>8.2062472555547425E-2</v>
-      </c>
-      <c r="T23" s="11">
-        <f t="shared" si="6"/>
-        <v>13.258424012610948</v>
-      </c>
-      <c r="U23" s="11">
-        <f t="shared" si="7"/>
-        <v>-2.2079747874303566</v>
-      </c>
-      <c r="V23" s="11">
-        <f t="shared" si="8"/>
-        <v>85.335363968826798</v>
-      </c>
-      <c r="W23" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="9">
-        <v>0</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>305440</v>
-      </c>
-      <c r="K24" s="9">
-        <v>305440</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N24" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="11">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="W24" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="9">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9">
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N25" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="11" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="11" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="9">
-        <v>0</v>
-      </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="N26" s="11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="11" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" s="11" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V26" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W26" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="9">
-        <v>0</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0</v>
-      </c>
-      <c r="J27" s="9">
-        <v>20752.099999999999</v>
-      </c>
-      <c r="K27" s="9">
-        <v>20752.099999999999</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="11">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="W27" s="11">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="8">
-        <f t="shared" ref="B28:K28" si="10">SUM(B7:B27)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="8">
-        <f t="shared" si="10"/>
-        <v>252390.315553016</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="10"/>
-        <v>14864.484471729998</v>
-      </c>
-      <c r="G28" s="8">
-        <f t="shared" si="10"/>
-        <v>76013.462288719995</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="10"/>
-        <v>95980.39409999999</v>
-      </c>
-      <c r="I28" s="8">
-        <f t="shared" si="10"/>
-        <v>10169.42967</v>
-      </c>
-      <c r="J28" s="8">
-        <f t="shared" si="10"/>
-        <v>2543253.1910000001</v>
-      </c>
-      <c r="K28" s="8">
-        <f t="shared" si="10"/>
-        <v>2992671.2770834663</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N28" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="13">
-        <f t="shared" si="3"/>
-        <v>8.4336130561918967</v>
-      </c>
-      <c r="R28" s="13">
-        <f t="shared" si="4"/>
-        <v>0.49669619866223025</v>
-      </c>
-      <c r="S28" s="13">
-        <f t="shared" si="5"/>
-        <v>2.5399870300088412</v>
-      </c>
-      <c r="T28" s="13">
-        <f t="shared" si="6"/>
-        <v>3.2071813177402668</v>
-      </c>
-      <c r="U28" s="13">
-        <f t="shared" si="7"/>
-        <v>0.33981111617145954</v>
-      </c>
-      <c r="V28" s="13">
-        <f t="shared" si="8"/>
-        <v>84.982711281225292</v>
-      </c>
-      <c r="W28" s="13">
-        <f t="shared" si="9"/>
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -10950,10 +8871,917 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" ht="67" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2117.21</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.627417</v>
+      </c>
+      <c r="G7" s="9">
+        <v>170.34129999999999</v>
+      </c>
+      <c r="H7" s="9">
+        <v>8100.24</v>
+      </c>
+      <c r="I7" s="9">
+        <v>611.98099999999999</v>
+      </c>
+      <c r="J7" s="9">
+        <v>24038.799999999999</v>
+      </c>
+      <c r="K7" s="9">
+        <v>35039.199717000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>52897.2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>52897.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>3253.5</v>
+      </c>
+      <c r="K9" s="9">
+        <v>3253.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>31591.7</v>
+      </c>
+      <c r="K10" s="9">
+        <v>31591.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>7.1343934899999999</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2.2339250000000002</v>
+      </c>
+      <c r="H11" s="9">
+        <v>32.865400000000001</v>
+      </c>
+      <c r="I11" s="9">
+        <v>2.70024</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>44.933958490000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>186415</v>
+      </c>
+      <c r="K12" s="9">
+        <v>186415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>10936.7</v>
+      </c>
+      <c r="K14" s="9">
+        <v>10936.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>236062.128</v>
+      </c>
+      <c r="F15" s="9">
+        <v>14122.7914</v>
+      </c>
+      <c r="G15" s="9">
+        <v>75642</v>
+      </c>
+      <c r="H15" s="9">
+        <v>12951.3</v>
+      </c>
+      <c r="I15" s="9">
+        <v>7288.18</v>
+      </c>
+      <c r="J15" s="9">
+        <v>22589.200000000001</v>
+      </c>
+      <c r="K15" s="9">
+        <v>368655.59940000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>20.94092247</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1.3877699999999999</v>
+      </c>
+      <c r="G16" s="9">
+        <v>85.184961999999999</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1256.5899999999999</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-38.363399999999999</v>
+      </c>
+      <c r="J16" s="9">
+        <v>2131.4899999999998</v>
+      </c>
+      <c r="K16" s="9">
+        <v>3457.2302544700001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>4715.6469200000001</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.32612</v>
+      </c>
+      <c r="G17" s="9">
+        <v>33.027999999999999</v>
+      </c>
+      <c r="H17" s="9">
+        <v>3357.73</v>
+      </c>
+      <c r="I17" s="9">
+        <v>33.910200000000003</v>
+      </c>
+      <c r="J17" s="9">
+        <v>9068.7000000000007</v>
+      </c>
+      <c r="K17" s="9">
+        <v>17210.341240000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>9463.1607999999997</v>
+      </c>
+      <c r="F18" s="9">
+        <v>736.274</v>
+      </c>
+      <c r="G18" s="9">
+        <v>80.530699999999996</v>
+      </c>
+      <c r="H18" s="9">
+        <v>70258.5</v>
+      </c>
+      <c r="I18" s="9">
+        <v>2274.88</v>
+      </c>
+      <c r="J18" s="9">
+        <v>32128.400000000001</v>
+      </c>
+      <c r="K18" s="9">
+        <v>114941.7455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>51925.8</v>
+      </c>
+      <c r="K19" s="9">
+        <v>51925.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1690.68</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1690.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>44884.800000000003</v>
+      </c>
+      <c r="K21" s="9">
+        <v>44884.800000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1743360</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1743360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>4.0945170559999999</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2.0777647300000002</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.14340172000000001</v>
+      </c>
+      <c r="H23" s="9">
+        <v>23.168700000000001</v>
+      </c>
+      <c r="I23" s="9">
+        <v>-3.8583699999999999</v>
+      </c>
+      <c r="J23" s="9">
+        <v>149.12100000000001</v>
+      </c>
+      <c r="K23" s="9">
+        <v>174.747013506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>305440</v>
+      </c>
+      <c r="K24" s="9">
+        <v>305440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>20752.099999999999</v>
+      </c>
+      <c r="K27" s="9">
+        <v>20752.099999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="8">
+        <f t="shared" ref="B28:K28" si="0">SUM(B7:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>252390.315553016</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="0"/>
+        <v>14864.484471729998</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>76013.462288719995</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="0"/>
+        <v>95980.39409999999</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" si="0"/>
+        <v>10169.42967</v>
+      </c>
+      <c r="J28" s="8">
+        <f t="shared" si="0"/>
+        <v>2543253.1910000001</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="0"/>
+        <v>2992671.2770834663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10963,95 +9791,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -11266,7 +10094,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B14" s="9">
         <v>210.75465189683999</v>
@@ -11476,7 +10304,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B21" s="9">
         <v>6884.65196196344</v>
@@ -11506,7 +10334,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="9">
         <v>2458.8042721298002</v>
@@ -11536,7 +10364,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="9">
         <v>8781.4438290350008</v>
@@ -11566,7 +10394,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="9">
         <v>11942.763607487601</v>
@@ -11596,7 +10424,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="9">
         <v>30664.800095579201</v>
@@ -11626,7 +10454,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" s="9">
         <v>100000</v>
@@ -11806,7 +10634,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" s="9">
         <v>20710.157126396101</v>
@@ -11836,7 +10664,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B33" s="9">
         <v>421.50930379367998</v>
@@ -11926,7 +10754,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B36" s="9">
         <v>4215.0930379368001</v>
@@ -11956,7 +10784,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B37" s="9">
         <v>8430.1860758736002</v>
@@ -11986,7 +10814,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" s="9">
         <v>17141.378354276301</v>
@@ -12106,7 +10934,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B42" s="9">
         <v>894070.40943183796</v>
@@ -12136,7 +10964,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B43" s="9">
         <v>1523.05361770783</v>
@@ -12226,7 +11054,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" s="9">
         <v>2498.60692026469</v>
@@ -12293,7 +11121,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.2">
@@ -12339,12 +11167,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12353,73 +11181,133 @@
     <col min="2" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="66" x14ac:dyDescent="0.2">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" ht="66" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="L6" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
@@ -12458,18 +11346,10 @@
         <f t="shared" ref="M7:M23" si="0">SUM(B7:L7)</f>
         <v>732.9</v>
       </c>
-      <c r="N7" s="23">
-        <f>SUM(M7:M13)</f>
-        <v>3826.4</v>
-      </c>
-      <c r="O7" s="22">
-        <f>N7/N$23*100</f>
-        <v>0.73501544504412986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
@@ -12508,14 +11388,10 @@
         <f t="shared" si="0"/>
         <v>218.8</v>
       </c>
-      <c r="O8" s="22">
-        <f t="shared" ref="O8:O23" si="1">N8/N$23*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
@@ -12554,14 +11430,10 @@
         <f t="shared" si="0"/>
         <v>115.5</v>
       </c>
-      <c r="O9" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
@@ -12600,14 +11472,10 @@
         <f t="shared" si="0"/>
         <v>1230.0999999999999</v>
       </c>
-      <c r="O10" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
@@ -12646,14 +11514,10 @@
         <f t="shared" si="0"/>
         <v>871.1</v>
       </c>
-      <c r="O11" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -12692,14 +11556,10 @@
         <f t="shared" si="0"/>
         <v>439.4</v>
       </c>
-      <c r="O12" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B13" s="9">
         <v>0</v>
@@ -12738,14 +11598,10 @@
         <f t="shared" si="0"/>
         <v>218.6</v>
       </c>
-      <c r="O13" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B14" s="9">
         <v>0</v>
@@ -12784,18 +11640,10 @@
         <f t="shared" si="0"/>
         <v>1658.5</v>
       </c>
-      <c r="N14" s="23">
-        <f>M14</f>
-        <v>1658.5</v>
-      </c>
-      <c r="O14" s="22">
-        <f t="shared" si="1"/>
-        <v>0.31858224848570177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B15" s="9">
         <v>0</v>
@@ -12834,18 +11682,10 @@
         <f t="shared" si="0"/>
         <v>1019.4000000000001</v>
       </c>
-      <c r="N15" s="23">
-        <f t="shared" ref="N15:N23" si="2">M15</f>
-        <v>1019.4000000000001</v>
-      </c>
-      <c r="O15" s="22">
-        <f t="shared" si="1"/>
-        <v>0.19581715050125079</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="9">
         <v>0</v>
@@ -12884,18 +11724,10 @@
         <f t="shared" si="0"/>
         <v>176.8</v>
       </c>
-      <c r="N16" s="23">
-        <f t="shared" si="2"/>
-        <v>176.8</v>
-      </c>
-      <c r="O16" s="22">
-        <f t="shared" si="1"/>
-        <v>3.3961616841888503E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B17" s="9">
         <v>38007.800000000003</v>
@@ -12934,18 +11766,10 @@
         <f t="shared" si="0"/>
         <v>105114</v>
       </c>
-      <c r="N17" s="23">
-        <f t="shared" si="2"/>
-        <v>105114</v>
-      </c>
-      <c r="O17" s="22">
-        <f t="shared" si="1"/>
-        <v>20.191410592297895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B18" s="9">
         <v>0</v>
@@ -12984,18 +11808,10 @@
         <f t="shared" si="0"/>
         <v>74172.5</v>
       </c>
-      <c r="N18" s="23">
-        <f t="shared" si="2"/>
-        <v>74172.5</v>
-      </c>
-      <c r="O18" s="22">
-        <f t="shared" si="1"/>
-        <v>14.247839509077911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="9">
         <v>1304</v>
@@ -13034,16 +11850,8 @@
         <f t="shared" si="0"/>
         <v>60077.5</v>
       </c>
-      <c r="N19" s="23">
-        <f t="shared" si="2"/>
-        <v>60077.5</v>
-      </c>
-      <c r="O19" s="22">
-        <f t="shared" si="1"/>
-        <v>11.540322600783689</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -13084,16 +11892,8 @@
         <f t="shared" si="0"/>
         <v>247676.00000000003</v>
       </c>
-      <c r="N20" s="23">
-        <f t="shared" si="2"/>
-        <v>247676.00000000003</v>
-      </c>
-      <c r="O20" s="22">
-        <f t="shared" si="1"/>
-        <v>47.576229711151456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -13134,18 +11934,10 @@
         <f t="shared" si="0"/>
         <v>22129.399999999998</v>
       </c>
-      <c r="N21" s="23">
-        <f t="shared" si="2"/>
-        <v>22129.399999999998</v>
-      </c>
-      <c r="O21" s="22">
-        <f t="shared" si="1"/>
-        <v>4.2508495686701773</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="9">
         <v>0</v>
@@ -13184,345 +11976,64 @@
         <f t="shared" si="0"/>
         <v>4737.1999999999989</v>
       </c>
-      <c r="N22" s="23">
-        <f t="shared" si="2"/>
-        <v>4737.1999999999989</v>
-      </c>
-      <c r="O22" s="22">
-        <f t="shared" si="1"/>
-        <v>0.90997155714589462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="8">
-        <f t="shared" ref="B23:L23" si="3">SUM(B7:B22)</f>
+        <f t="shared" ref="B23:L23" si="1">SUM(B7:B22)</f>
         <v>247381.8</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25402.5</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>34178.5</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>44416.499999999993</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>52970.100000000006</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>23802.500000000004</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3299.8999999999996</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14559.8</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4123.8999999999996</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>40980.199999999997</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>29471.999999999996</v>
       </c>
       <c r="M23" s="8">
         <f t="shared" si="0"/>
         <v>520587.70000000007</v>
       </c>
-      <c r="N23" s="23">
-        <f t="shared" si="2"/>
-        <v>520587.70000000007</v>
-      </c>
-      <c r="O23" s="22">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D27" s="7">
-        <f>B20/$M$23*100</f>
-        <v>39.968289684908029</v>
-      </c>
-      <c r="E27" s="7">
-        <f>I20/$M$23*100</f>
-        <v>1.3340883774242072</v>
-      </c>
-      <c r="F27" s="7">
-        <f>L20/$M$23*100</f>
-        <v>1.2772295618970635</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.83203125" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:7" ht="40" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="17">
-        <v>32835.921788489999</v>
-      </c>
-      <c r="C7" s="17">
-        <v>3907.452472856</v>
-      </c>
-      <c r="D7" s="17">
-        <v>272.95976329539798</v>
-      </c>
-      <c r="E7" s="17">
-        <v>24128.787914142998</v>
-      </c>
-      <c r="F7" s="17">
-        <v>61145.121938784403</v>
-      </c>
-      <c r="G7" s="25">
-        <f>F7/F$13*100</f>
-        <v>9.0350533122512005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="17">
-        <v>8277.8242064999995</v>
-      </c>
-      <c r="C8" s="17">
-        <v>105.47016000000001</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.44287029564899999</v>
-      </c>
-      <c r="E8" s="17">
-        <v>2123.4302814299999</v>
-      </c>
-      <c r="F8" s="17">
-        <v>10507.1675182256</v>
-      </c>
-      <c r="G8" s="25">
-        <f t="shared" ref="G8:G13" si="0">F8/F$13*100</f>
-        <v>1.5525820487031601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="17">
-        <v>3651.7692291399999</v>
-      </c>
-      <c r="C9" s="17">
-        <v>32.157426999999998</v>
-      </c>
-      <c r="D9" s="17">
-        <v>20.3759557554332</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1253.5086821370001</v>
-      </c>
-      <c r="F9" s="17">
-        <v>4957.8112940324299</v>
-      </c>
-      <c r="G9" s="25">
-        <f t="shared" si="0"/>
-        <v>0.732586475148579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="17">
-        <v>3551.0487908</v>
-      </c>
-      <c r="C10" s="17">
-        <v>66.691987400000002</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0.53814399999999996</v>
-      </c>
-      <c r="E10" s="17">
-        <v>2782.4319134000002</v>
-      </c>
-      <c r="F10" s="17">
-        <v>6400.7108355999999</v>
-      </c>
-      <c r="G10" s="25">
-        <f t="shared" si="0"/>
-        <v>0.94579521312995896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="17">
-        <v>881.86071189999996</v>
-      </c>
-      <c r="C11" s="17">
-        <v>95.006200000000007</v>
-      </c>
-      <c r="D11" s="17">
-        <v>6.6813186389299997</v>
-      </c>
-      <c r="E11" s="17">
-        <v>490.68733400000002</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1474.23556453893</v>
-      </c>
-      <c r="G11" s="25">
-        <f t="shared" si="0"/>
-        <v>0.21783907690561358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="17">
-        <v>485864.60847843799</v>
-      </c>
-      <c r="C12" s="17">
-        <v>116612.31823600001</v>
-      </c>
-      <c r="D12" s="17">
-        <v>20571.265760605402</v>
-      </c>
-      <c r="E12" s="17">
-        <v>-30778.827387462901</v>
-      </c>
-      <c r="F12" s="17">
-        <v>592269.36508758098</v>
-      </c>
-      <c r="G12" s="25">
-        <f t="shared" si="0"/>
-        <v>87.516143873861537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="18">
-        <v>535063.03320526797</v>
-      </c>
-      <c r="C13" s="18">
-        <v>120819.096483256</v>
-      </c>
-      <c r="D13" s="18">
-        <v>20872.263812590802</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1.8737647136958899E-2</v>
-      </c>
-      <c r="F13" s="18">
-        <v>676754.41223876202</v>
-      </c>
-      <c r="G13" s="25">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/docs/cuadrosfiguraSAN.xlsx
+++ b/docs/cuadrosfiguraSAN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renato/data/caesan/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renato/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,22 +13,27 @@
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="14" r:id="rId1"/>
-    <sheet name="Oferta Prods Agrícolas" sheetId="1" r:id="rId2"/>
-    <sheet name="Utilización Prods Agrícolas" sheetId="2" r:id="rId3"/>
-    <sheet name="Oferta Piscícola" sheetId="3" r:id="rId4"/>
-    <sheet name="Utilización Piscícola" sheetId="4" r:id="rId5"/>
-    <sheet name="Oferta al. procesados" sheetId="5" r:id="rId6"/>
-    <sheet name="Utilización de al. procesados" sheetId="6" r:id="rId7"/>
-    <sheet name="Utilización de agua" sheetId="7" r:id="rId8"/>
-    <sheet name="Utilización de energía" sheetId="8" r:id="rId9"/>
-    <sheet name="Consumo fertilizantes" sheetId="12" r:id="rId10"/>
-    <sheet name="Calorías per cápita" sheetId="13" r:id="rId11"/>
-    <sheet name="Oferta monetaria" sheetId="9" r:id="rId12"/>
-    <sheet name="Utilización Monetaria" sheetId="10" r:id="rId13"/>
-    <sheet name="Cuentas de producción e ingreso" sheetId="11" r:id="rId14"/>
+    <sheet name="Figura 1" sheetId="15" r:id="rId2"/>
+    <sheet name="Figura 2" sheetId="16" r:id="rId3"/>
+    <sheet name="Oferta Prods Agrícolas" sheetId="1" r:id="rId4"/>
+    <sheet name="Utilización Prods Agrícolas" sheetId="2" r:id="rId5"/>
+    <sheet name="Oferta Piscícola" sheetId="3" r:id="rId6"/>
+    <sheet name="Utilización Piscícola" sheetId="4" r:id="rId7"/>
+    <sheet name="Oferta al. procesados" sheetId="5" r:id="rId8"/>
+    <sheet name="Utilización de al. procesados" sheetId="6" r:id="rId9"/>
+    <sheet name="Utilización de agua" sheetId="7" r:id="rId10"/>
+    <sheet name="Utilización de energía" sheetId="8" r:id="rId11"/>
+    <sheet name="Consumo fertilizantes" sheetId="12" r:id="rId12"/>
+    <sheet name="Calorías per cápita" sheetId="13" r:id="rId13"/>
+    <sheet name="Oferta monetaria" sheetId="9" r:id="rId14"/>
+    <sheet name="Utilización Monetaria" sheetId="10" r:id="rId15"/>
+    <sheet name="Cuentas de producción e ingreso" sheetId="11" r:id="rId16"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="259">
   <si>
     <t>Cuadro 1</t>
   </si>
@@ -701,6 +706,156 @@
   <si>
     <t>Cuentas de producción e ingreso extendidas (2010)</t>
   </si>
+  <si>
+    <t>Datos económicos</t>
+  </si>
+  <si>
+    <t>Figura 1. Esquema de cuentas de flujos</t>
+  </si>
+  <si>
+    <t>Figura 2. Esquema de cuentas de activos</t>
+  </si>
+  <si>
+    <t>Figura 1</t>
+  </si>
+  <si>
+    <t>Cuanta de Seguridad Alimentaria y Nutricional</t>
+  </si>
+  <si>
+    <t>Esquema de cuentas de flujos</t>
+  </si>
+  <si>
+    <t>Industrias</t>
+  </si>
+  <si>
+    <t>Gobierno</t>
+  </si>
+  <si>
+    <t>Acumulación</t>
+  </si>
+  <si>
+    <t>Resto del mundo</t>
+  </si>
+  <si>
+    <t>Cuadro de oferta</t>
+  </si>
+  <si>
+    <t>Insumos naturales</t>
+  </si>
+  <si>
+    <t>Flujos procedentes del ambiente</t>
+  </si>
+  <si>
+    <t>Oferta total de insumos naturales</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>Oferta total de productos</t>
+  </si>
+  <si>
+    <t>Residuos</t>
+  </si>
+  <si>
+    <t>Residuos generados por las industrias</t>
+  </si>
+  <si>
+    <t>Residuos generados por el consumo final de los hogares</t>
+  </si>
+  <si>
+    <t>Residuos de la fragmentación y demolición de activos producidos</t>
+  </si>
+  <si>
+    <t>Oferta total de residuos</t>
+  </si>
+  <si>
+    <t>Cuadro de utilización</t>
+  </si>
+  <si>
+    <t>Extracción de insumos naturales</t>
+  </si>
+  <si>
+    <t>Utilización total de insumos naturales</t>
+  </si>
+  <si>
+    <t>Consumo final de los hogares</t>
+  </si>
+  <si>
+    <t>Formación bruta de capital</t>
+  </si>
+  <si>
+    <t>Utilización total de productos</t>
+  </si>
+  <si>
+    <t>Recolección y tratamiento de residuos y otros residuos</t>
+  </si>
+  <si>
+    <t>Acumulación de residuos en vertederos controlados</t>
+  </si>
+  <si>
+    <t>Flujos directos de residuos al ambiente</t>
+  </si>
+  <si>
+    <t>Utilización total de residuos</t>
+  </si>
+  <si>
+    <t>Fuente: UN et al. (2014)</t>
+  </si>
+  <si>
+    <t>Figura 2</t>
+  </si>
+  <si>
+    <t>Esquema de cuentas de activos</t>
+  </si>
+  <si>
+    <t>Stock de apertura de activos ambientales</t>
+  </si>
+  <si>
+    <t>Adiciones al stock</t>
+  </si>
+  <si>
+    <t>Crecimiento del stock</t>
+  </si>
+  <si>
+    <t>Descubrimeinto de nuevas reservas</t>
+  </si>
+  <si>
+    <t>Aumentos por reconsideración</t>
+  </si>
+  <si>
+    <t>Cambios de clasificaciones</t>
+  </si>
+  <si>
+    <t>Total de aumentos del stock</t>
+  </si>
+  <si>
+    <t>Disminuciones del stock</t>
+  </si>
+  <si>
+    <t>Extracciones</t>
+  </si>
+  <si>
+    <t>Pérdidas normales del stock</t>
+  </si>
+  <si>
+    <t>Pérdidas por catástrofes</t>
+  </si>
+  <si>
+    <t>Disminuciones por reconsideración</t>
+  </si>
+  <si>
+    <t>Total de disminuciones del stock</t>
+  </si>
+  <si>
+    <t>Revalorización del stock*</t>
+  </si>
+  <si>
+    <t>Stock de cierre de activos ambientales</t>
+  </si>
+  <si>
+    <t>* Se aplica solo a las cuentas de activos en unidades monetarias.</t>
+  </si>
 </sst>
 </file>
 
@@ -711,7 +866,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -790,8 +945,39 @@
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,8 +1008,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -851,6 +1066,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -858,7 +1170,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -903,9 +1215,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -924,6 +1233,97 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1027,7 +1427,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1183,7 +1582,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1286,11 +1684,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2066727520"/>
-        <c:axId val="-2066741472"/>
+        <c:axId val="2118686608"/>
+        <c:axId val="2118689920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2066727520"/>
+        <c:axId val="2118686608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066741472"/>
+        <c:crossAx val="2118689920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1341,7 +1739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066741472"/>
+        <c:axId val="2118689920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,7 +1790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066727520"/>
+        <c:crossAx val="2118686608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1406,7 +1804,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2316,29 +2713,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
+      <c r="A3" s="28"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>190</v>
       </c>
       <c r="B4" s="25"/>
@@ -2348,103 +2745,123 @@
       <c r="F4" s="25"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
+      <c r="A24" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2461,12 +2878,2285 @@
     <hyperlink ref="A26" location="'Oferta monetaria'!A1" display="Oferta total en términos monetarios (2010)"/>
     <hyperlink ref="A27" location="'Utilización Monetaria'!A1" display="Utilización total en términos monetarios (2010)"/>
     <hyperlink ref="A28" location="'Cuentas de producción e ingreso'!A1" display="Cuentas de producción e ingreso extendidas (2010)"/>
+    <hyperlink ref="A32" location="'Figura 1'!A1" display="Figura 1. Esquema de cuentas de flujos"/>
+    <hyperlink ref="A33" location="'Figura 2'!A1" display="Figura 2. Esquema de cuentas de activos"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="2" max="9" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+    </row>
+    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>250095.520250917</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2569739259.9149199</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2569739259.9149199</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>63584.678477276597</v>
+      </c>
+      <c r="C8" s="8">
+        <v>535828529.723957</v>
+      </c>
+      <c r="D8" s="8">
+        <v>341077072.00891697</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>477507900.70826602</v>
+      </c>
+      <c r="G8" s="8">
+        <v>79584650.123834103</v>
+      </c>
+      <c r="H8" s="8">
+        <v>898169622.84101701</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1433998152.56497</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8">
+        <v>62523.8800627292</v>
+      </c>
+      <c r="C9" s="8">
+        <v>670418977.89874303</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>670418977.89874303</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9975.7201897837604</v>
+      </c>
+      <c r="C10" s="8">
+        <v>56178995.368562199</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>56178995.368562199</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8">
+        <v>825424.10673150595</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4819393423.9791002</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>4819393423.9791002</v>
+      </c>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8">
+        <v>27187.3500946924</v>
+      </c>
+      <c r="C12" s="8">
+        <v>156494783.120231</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>156494783.120231</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>684.95261866473004</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2672319.4391717501</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2672319.4391717501</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="8">
+        <v>210.75465189683999</v>
+      </c>
+      <c r="C14" s="8">
+        <v>817281.99388686195</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>817281.99388686195</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="8">
+        <v>34423.259809817202</v>
+      </c>
+      <c r="C15" s="8">
+        <v>124480070.612846</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>124480070.612846</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1013.02736011748</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5479380.9779159697</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3389245.3120430098</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1806890.38795528</v>
+      </c>
+      <c r="F16" s="8">
+        <v>423258.49042542197</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1596499.3574717799</v>
+      </c>
+      <c r="H16" s="8">
+        <v>7215893.5478955004</v>
+      </c>
+      <c r="I16" s="8">
+        <v>12695274.525811501</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="8">
+        <v>9132.7015821963996</v>
+      </c>
+      <c r="C17" s="8">
+        <v>68049545.730843097</v>
+      </c>
+      <c r="D17" s="8">
+        <v>23869538.922767401</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>33417354.336280301</v>
+      </c>
+      <c r="G17" s="8">
+        <v>5569559.1857084101</v>
+      </c>
+      <c r="H17" s="8">
+        <v>62856452.444756098</v>
+      </c>
+      <c r="I17" s="8">
+        <v>130905998.17559899</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="8">
+        <v>22944.156436502599</v>
+      </c>
+      <c r="C18" s="8">
+        <v>56149466.390675001</v>
+      </c>
+      <c r="D18" s="8">
+        <v>55925693.498727903</v>
+      </c>
+      <c r="E18" s="8">
+        <v>5799702.2136359904</v>
+      </c>
+      <c r="F18" s="8">
+        <v>130493286.5923</v>
+      </c>
+      <c r="G18" s="8">
+        <v>30448433.538203299</v>
+      </c>
+      <c r="H18" s="8">
+        <v>222667115.84286699</v>
+      </c>
+      <c r="I18" s="8">
+        <v>278816582.23354203</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="8">
+        <v>24.588042721297999</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3619141.1316</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>3619141.1316</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3431.7882483868798</v>
+      </c>
+      <c r="C20" s="8">
+        <v>91845671.0466232</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>91845671.0466232</v>
+      </c>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="8">
+        <v>6884.65196196344</v>
+      </c>
+      <c r="C21" s="8">
+        <v>109669416.567504</v>
+      </c>
+      <c r="D21" s="8">
+        <v>34661224.1606289</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>48525713.598940603</v>
+      </c>
+      <c r="G21" s="8">
+        <v>8087619.1214399599</v>
+      </c>
+      <c r="H21" s="8">
+        <v>91274556.8810094</v>
+      </c>
+      <c r="I21" s="8">
+        <v>200943973.448513</v>
+      </c>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2458.8042721298002</v>
+      </c>
+      <c r="C22" s="8">
+        <v>43853500.181361802</v>
+      </c>
+      <c r="D22" s="8">
+        <v>15117541.7179549</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1136046.58605358</v>
+      </c>
+      <c r="F22" s="8">
+        <v>17688254.8744215</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2556106.0403599399</v>
+      </c>
+      <c r="H22" s="8">
+        <v>36497949.218789898</v>
+      </c>
+      <c r="I22" s="8">
+        <v>80351449.4001517</v>
+      </c>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="8">
+        <v>8781.4438290350008</v>
+      </c>
+      <c r="C23" s="8">
+        <v>88017964.581443295</v>
+      </c>
+      <c r="D23" s="8">
+        <v>34407133.543919504</v>
+      </c>
+      <c r="E23" s="8">
+        <v>18343290.989789002</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4296852.6721495697</v>
+      </c>
+      <c r="G23" s="8">
+        <v>16207427.398088399</v>
+      </c>
+      <c r="H23" s="8">
+        <v>73254704.603946403</v>
+      </c>
+      <c r="I23" s="8">
+        <v>161272669.18539</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="8">
+        <v>11942.763607487601</v>
+      </c>
+      <c r="C24" s="8">
+        <v>233663476.33769101</v>
+      </c>
+      <c r="D24" s="8">
+        <v>73849778.858109906</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>103389689.799615</v>
+      </c>
+      <c r="G24" s="8">
+        <v>17231614.7994528</v>
+      </c>
+      <c r="H24" s="8">
+        <v>194471083.457178</v>
+      </c>
+      <c r="I24" s="8">
+        <v>428134559.79486799</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="8">
+        <v>30664.800095579201</v>
+      </c>
+      <c r="C25" s="8">
+        <v>49317872.6901059</v>
+      </c>
+      <c r="D25" s="8">
+        <v>17001265.723649699</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1277604.0326078399</v>
+      </c>
+      <c r="F25" s="8">
+        <v>19892302.0351975</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2874610.3143767901</v>
+      </c>
+      <c r="H25" s="8">
+        <v>41045782.105831802</v>
+      </c>
+      <c r="I25" s="8">
+        <v>90363654.795937702</v>
+      </c>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="8">
+        <v>100000</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1360707280.93116</v>
+      </c>
+      <c r="D26" s="8">
+        <v>627295820.55128098</v>
+      </c>
+      <c r="E26" s="8">
+        <v>47139782.541037701</v>
+      </c>
+      <c r="F26" s="8">
+        <v>733966414.13169706</v>
+      </c>
+      <c r="G26" s="8">
+        <v>106064509.910815</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1514466527.13483</v>
+      </c>
+      <c r="I26" s="8">
+        <v>2875173808.06599</v>
+      </c>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="8">
+        <v>7376.4128163894002</v>
+      </c>
+      <c r="C27" s="8">
+        <v>28093581.304467399</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>28093581.304467399</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="8">
+        <v>5409.3693986855596</v>
+      </c>
+      <c r="C28" s="8">
+        <v>17699413.399346899</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <v>17699413.399346899</v>
+      </c>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="8">
+        <v>4004.3383860399599</v>
+      </c>
+      <c r="C29" s="8">
+        <v>18492579.855480701</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8">
+        <v>18492579.855480701</v>
+      </c>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="8">
+        <v>354091.77472204203</v>
+      </c>
+      <c r="C30" s="8">
+        <v>931612203.55445004</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
+        <v>931612203.55445004</v>
+      </c>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="8">
+        <v>421.50930379367998</v>
+      </c>
+      <c r="C31" s="8">
+        <v>640766.37104970496</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <v>640766.37104970496</v>
+      </c>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="8">
+        <v>20710.157126396101</v>
+      </c>
+      <c r="C32" s="8">
+        <v>193103918.05677199</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <v>193103918.05677199</v>
+      </c>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="8">
+        <v>421.50930379367998</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2264092.6783230002</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
+        <v>2264092.6783230002</v>
+      </c>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="8">
+        <v>18616.6609175542</v>
+      </c>
+      <c r="C34" s="8">
+        <v>35607815.451540202</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
+        <v>35607815.451540202</v>
+      </c>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2165.2875194880799</v>
+      </c>
+      <c r="C35" s="8">
+        <v>51347892.767319001</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <v>51347892.767319001</v>
+      </c>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="8">
+        <v>4215.0930379368001</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2176334.27084208</v>
+      </c>
+      <c r="D36" s="8">
+        <v>7017638.9113512496</v>
+      </c>
+      <c r="E36" s="8">
+        <v>3741276.2873681099</v>
+      </c>
+      <c r="F36" s="8">
+        <v>876381.05691882595</v>
+      </c>
+      <c r="G36" s="8">
+        <v>3305648.7140200501</v>
+      </c>
+      <c r="H36" s="8">
+        <v>14940944.9696582</v>
+      </c>
+      <c r="I36" s="8">
+        <v>17117279.240500301</v>
+      </c>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="8">
+        <v>8430.1860758736002</v>
+      </c>
+      <c r="C37" s="8">
+        <v>9475507.1368899196</v>
+      </c>
+      <c r="D37" s="8">
+        <v>30553984.9182835</v>
+      </c>
+      <c r="E37" s="8">
+        <v>16289084.187087599</v>
+      </c>
+      <c r="F37" s="8">
+        <v>3815663.2683341</v>
+      </c>
+      <c r="G37" s="8">
+        <v>14392410.0857195</v>
+      </c>
+      <c r="H37" s="8">
+        <v>65051142.459424801</v>
+      </c>
+      <c r="I37" s="8">
+        <v>74526649.596314698</v>
+      </c>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="8">
+        <v>17141.378354276301</v>
+      </c>
+      <c r="C38" s="8">
+        <v>67941909.468371406</v>
+      </c>
+      <c r="D38" s="8">
+        <v>219080218.70743999</v>
+      </c>
+      <c r="E38" s="8">
+        <v>116797070.41402601</v>
+      </c>
+      <c r="F38" s="8">
+        <v>27359313.587839998</v>
+      </c>
+      <c r="G38" s="8">
+        <v>103197411.63338301</v>
+      </c>
+      <c r="H38" s="8">
+        <v>466434014.34268898</v>
+      </c>
+      <c r="I38" s="8">
+        <v>534375923.81106102</v>
+      </c>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="8">
+        <v>3934.0868354076802</v>
+      </c>
+      <c r="C39" s="8">
+        <v>42752778.796714097</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8">
+        <v>42752778.796714097</v>
+      </c>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="8">
+        <v>241500</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2698038626.3502698</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1129743132.9377</v>
+      </c>
+      <c r="E40" s="8">
+        <v>16774973.791283401</v>
+      </c>
+      <c r="F40" s="8">
+        <v>805198742.05909097</v>
+      </c>
+      <c r="G40" s="8">
+        <v>161758675.909091</v>
+      </c>
+      <c r="H40" s="8">
+        <v>2113475524.69717</v>
+      </c>
+      <c r="I40" s="8">
+        <v>4811514151.04743</v>
+      </c>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="8">
+        <v>487.54576138802298</v>
+      </c>
+      <c r="C41" s="8">
+        <v>135900.24138198001</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <v>135900.24138198001</v>
+      </c>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="8">
+        <v>894070.40943183796</v>
+      </c>
+      <c r="C42" s="8">
+        <v>3408024.5655899998</v>
+      </c>
+      <c r="D42" s="8">
+        <v>62024591.3947495</v>
+      </c>
+      <c r="E42" s="8">
+        <v>33066839.8944709</v>
+      </c>
+      <c r="F42" s="8">
+        <v>7745794.4240842704</v>
+      </c>
+      <c r="G42" s="8">
+        <v>29216591.4686937</v>
+      </c>
+      <c r="H42" s="8">
+        <v>132053817.181998</v>
+      </c>
+      <c r="I42" s="8">
+        <v>135461841.74758801</v>
+      </c>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="8">
+        <v>1523.05361770783</v>
+      </c>
+      <c r="C43" s="8">
+        <v>12342437.3380189</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
+        <v>12342437.3380189</v>
+      </c>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8">
+        <v>11825.3378201541</v>
+      </c>
+      <c r="C44" s="8">
+        <v>6168010.4674088201</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8">
+        <v>6168010.4674088201</v>
+      </c>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="8">
+        <v>1250.4776012545799</v>
+      </c>
+      <c r="C45" s="8">
+        <v>15498414.9428245</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8">
+        <v>15498414.9428245</v>
+      </c>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="8">
+        <v>2498.60692026469</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0</v>
+      </c>
+      <c r="D46" s="8">
+        <v>12067845.5215261</v>
+      </c>
+      <c r="E46" s="8">
+        <v>6433666.4028013898</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1507064.74912471</v>
+      </c>
+      <c r="G46" s="8">
+        <v>5684540.8962423299</v>
+      </c>
+      <c r="H46" s="8">
+        <v>25693117.569694601</v>
+      </c>
+      <c r="I46" s="8">
+        <v>25693117.569694601</v>
+      </c>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="7">
+        <f t="shared" ref="B47:I47" si="0">SUM(B7:B46)</f>
+        <v>3071482.1432736879</v>
+      </c>
+      <c r="C47" s="7">
+        <f t="shared" si="0"/>
+        <v>15183196565.635405</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="0"/>
+        <v>2687081726.6890497</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="0"/>
+        <v>268606227.72811681</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="0"/>
+        <v>2416103986.3846855</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="0"/>
+        <v>587776308.4969002</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="0"/>
+        <v>5959568249.2987566</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="0"/>
+        <v>21142764814.934147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C51" s="6">
+        <f>C40/$I40*100</f>
+        <v>56.074627272226294</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" ref="D51:I51" si="1">D40/$I40*100</f>
+        <v>23.479991900091647</v>
+      </c>
+      <c r="E51" s="6">
+        <f t="shared" si="1"/>
+        <v>0.34864230395397711</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" si="1"/>
+        <v>16.734830591401366</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="1"/>
+        <v>3.3619079323268202</v>
+      </c>
+      <c r="H51" s="6">
+        <f t="shared" si="1"/>
+        <v>43.925372727773905</v>
+      </c>
+      <c r="I51" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13" ht="66" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>199.2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>395.1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>138.6</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" ref="M7:M23" si="0">SUM(B7:L7)</f>
+        <v>732.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="F8" s="8">
+        <v>149.9</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="0"/>
+        <v>218.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>69.5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>46</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="0"/>
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1066.8</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="0"/>
+        <v>1230.0999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>141.1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>730</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="0"/>
+        <v>871.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>120</v>
+      </c>
+      <c r="F12" s="8">
+        <v>319.39999999999998</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="0"/>
+        <v>439.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>60.1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>158.5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="0"/>
+        <v>218.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>55.7</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1326.5</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>276.3</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="0"/>
+        <v>1658.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="F15" s="8">
+        <v>889.6</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="0"/>
+        <v>1019.4000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>74.3</v>
+      </c>
+      <c r="F16" s="8">
+        <v>102.5</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="0"/>
+        <v>176.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="8">
+        <v>38007.800000000003</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2828.5</v>
+      </c>
+      <c r="D17" s="8">
+        <v>19987.5</v>
+      </c>
+      <c r="E17" s="8">
+        <v>7406.2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>14627.6</v>
+      </c>
+      <c r="G17" s="8">
+        <v>8310.2000000000007</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>2705.8</v>
+      </c>
+      <c r="J17" s="8">
+        <v>3988.9</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>7251.5</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="0"/>
+        <v>105114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>13856.3</v>
+      </c>
+      <c r="E18" s="8">
+        <v>97.3</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1926.7</v>
+      </c>
+      <c r="G18" s="8">
+        <v>13634.1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>827.8</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1608.1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>40980.199999999997</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1242</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="0"/>
+        <v>74172.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1304</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>334.7</v>
+      </c>
+      <c r="E19" s="8">
+        <v>10924.8</v>
+      </c>
+      <c r="F19" s="8">
+        <v>30271</v>
+      </c>
+      <c r="G19" s="8">
+        <v>694.9</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1839.4</v>
+      </c>
+      <c r="I19" s="8">
+        <v>627.70000000000005</v>
+      </c>
+      <c r="J19" s="8">
+        <v>640.29999999999995</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>13440.7</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="0"/>
+        <v>60077.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="8">
+        <v>208070</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>22807.7</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2365.8000000000002</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>706.1</v>
+      </c>
+      <c r="I20" s="8">
+        <v>6945.1</v>
+      </c>
+      <c r="J20" s="8">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>6649.1</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="0"/>
+        <v>247676.00000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <v>21655.599999999999</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>473.8</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="0"/>
+        <v>22129.399999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>918.4</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2098.6</v>
+      </c>
+      <c r="F22" s="8">
+        <v>-1405.3</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1163.3</v>
+      </c>
+      <c r="H22" s="8">
+        <v>-73.400000000000006</v>
+      </c>
+      <c r="I22" s="8">
+        <v>4281.2</v>
+      </c>
+      <c r="J22" s="8">
+        <v>-2245.6</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="0"/>
+        <v>4737.1999999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="7">
+        <f t="shared" ref="B23:L23" si="1">SUM(B7:B22)</f>
+        <v>247381.8</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="1"/>
+        <v>25402.5</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="1"/>
+        <v>34178.5</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="1"/>
+        <v>44416.499999999993</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="1"/>
+        <v>52970.100000000006</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="1"/>
+        <v>23802.500000000004</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>3299.8999999999996</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="1"/>
+        <v>14559.8</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="1"/>
+        <v>4123.8999999999996</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="1"/>
+        <v>40980.199999999997</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="1"/>
+        <v>29471.999999999996</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="0"/>
+        <v>520587.70000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFC000"/>
@@ -2627,7 +5317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFC000"/>
@@ -2932,7 +5622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -3191,7 +5881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -3471,7 +6161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -3908,13 +6598,357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+    </row>
+    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="49" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="3" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="62"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="62"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="62"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="62"/>
+    </row>
+    <row r="11" spans="1:3" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="64"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="69"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="69"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="69"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="69"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="69"/>
+    </row>
+    <row r="18" spans="1:3" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="71"/>
+    </row>
+    <row r="19" spans="1:3" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="73"/>
+      <c r="C19" s="62"/>
+    </row>
+    <row r="20" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="57" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3987,7 +7021,7 @@
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -4675,7 +7709,7 @@
         <f>SUM(E7:E43)</f>
         <v>30779630.786280006</v>
       </c>
-      <c r="F44" s="31"/>
+      <c r="F44" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4683,7 +7717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B050"/>
@@ -7895,7 +10929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B050"/>
@@ -8101,7 +11135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B050"/>
@@ -8456,7 +11490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B050"/>
@@ -8900,7 +11934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B050"/>
@@ -9808,2275 +12842,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:K51"/>
-  <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="1"/>
-    <col min="2" max="9" width="10.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8">
-        <v>250095.520250917</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2569739259.9149199</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>2569739259.9149199</v>
-      </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8">
-        <v>63584.678477276597</v>
-      </c>
-      <c r="C8" s="8">
-        <v>535828529.723957</v>
-      </c>
-      <c r="D8" s="8">
-        <v>341077072.00891697</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>477507900.70826602</v>
-      </c>
-      <c r="G8" s="8">
-        <v>79584650.123834103</v>
-      </c>
-      <c r="H8" s="8">
-        <v>898169622.84101701</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1433998152.56497</v>
-      </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8">
-        <v>62523.8800627292</v>
-      </c>
-      <c r="C9" s="8">
-        <v>670418977.89874303</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>670418977.89874303</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8">
-        <v>9975.7201897837604</v>
-      </c>
-      <c r="C10" s="8">
-        <v>56178995.368562199</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>56178995.368562199</v>
-      </c>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8">
-        <v>825424.10673150595</v>
-      </c>
-      <c r="C11" s="8">
-        <v>4819393423.9791002</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>4819393423.9791002</v>
-      </c>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8">
-        <v>27187.3500946924</v>
-      </c>
-      <c r="C12" s="8">
-        <v>156494783.120231</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>156494783.120231</v>
-      </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8">
-        <v>684.95261866473004</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2672319.4391717501</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>2672319.4391717501</v>
-      </c>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="8">
-        <v>210.75465189683999</v>
-      </c>
-      <c r="C14" s="8">
-        <v>817281.99388686195</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>817281.99388686195</v>
-      </c>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="8">
-        <v>34423.259809817202</v>
-      </c>
-      <c r="C15" s="8">
-        <v>124480070.612846</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>124480070.612846</v>
-      </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1013.02736011748</v>
-      </c>
-      <c r="C16" s="8">
-        <v>5479380.9779159697</v>
-      </c>
-      <c r="D16" s="8">
-        <v>3389245.3120430098</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1806890.38795528</v>
-      </c>
-      <c r="F16" s="8">
-        <v>423258.49042542197</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1596499.3574717799</v>
-      </c>
-      <c r="H16" s="8">
-        <v>7215893.5478955004</v>
-      </c>
-      <c r="I16" s="8">
-        <v>12695274.525811501</v>
-      </c>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="8">
-        <v>9132.7015821963996</v>
-      </c>
-      <c r="C17" s="8">
-        <v>68049545.730843097</v>
-      </c>
-      <c r="D17" s="8">
-        <v>23869538.922767401</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>33417354.336280301</v>
-      </c>
-      <c r="G17" s="8">
-        <v>5569559.1857084101</v>
-      </c>
-      <c r="H17" s="8">
-        <v>62856452.444756098</v>
-      </c>
-      <c r="I17" s="8">
-        <v>130905998.17559899</v>
-      </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="8">
-        <v>22944.156436502599</v>
-      </c>
-      <c r="C18" s="8">
-        <v>56149466.390675001</v>
-      </c>
-      <c r="D18" s="8">
-        <v>55925693.498727903</v>
-      </c>
-      <c r="E18" s="8">
-        <v>5799702.2136359904</v>
-      </c>
-      <c r="F18" s="8">
-        <v>130493286.5923</v>
-      </c>
-      <c r="G18" s="8">
-        <v>30448433.538203299</v>
-      </c>
-      <c r="H18" s="8">
-        <v>222667115.84286699</v>
-      </c>
-      <c r="I18" s="8">
-        <v>278816582.23354203</v>
-      </c>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="8">
-        <v>24.588042721297999</v>
-      </c>
-      <c r="C19" s="8">
-        <v>3619141.1316</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>3619141.1316</v>
-      </c>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="8">
-        <v>3431.7882483868798</v>
-      </c>
-      <c r="C20" s="8">
-        <v>91845671.0466232</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>91845671.0466232</v>
-      </c>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="8">
-        <v>6884.65196196344</v>
-      </c>
-      <c r="C21" s="8">
-        <v>109669416.567504</v>
-      </c>
-      <c r="D21" s="8">
-        <v>34661224.1606289</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>48525713.598940603</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8087619.1214399599</v>
-      </c>
-      <c r="H21" s="8">
-        <v>91274556.8810094</v>
-      </c>
-      <c r="I21" s="8">
-        <v>200943973.448513</v>
-      </c>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="8">
-        <v>2458.8042721298002</v>
-      </c>
-      <c r="C22" s="8">
-        <v>43853500.181361802</v>
-      </c>
-      <c r="D22" s="8">
-        <v>15117541.7179549</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1136046.58605358</v>
-      </c>
-      <c r="F22" s="8">
-        <v>17688254.8744215</v>
-      </c>
-      <c r="G22" s="8">
-        <v>2556106.0403599399</v>
-      </c>
-      <c r="H22" s="8">
-        <v>36497949.218789898</v>
-      </c>
-      <c r="I22" s="8">
-        <v>80351449.4001517</v>
-      </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="8">
-        <v>8781.4438290350008</v>
-      </c>
-      <c r="C23" s="8">
-        <v>88017964.581443295</v>
-      </c>
-      <c r="D23" s="8">
-        <v>34407133.543919504</v>
-      </c>
-      <c r="E23" s="8">
-        <v>18343290.989789002</v>
-      </c>
-      <c r="F23" s="8">
-        <v>4296852.6721495697</v>
-      </c>
-      <c r="G23" s="8">
-        <v>16207427.398088399</v>
-      </c>
-      <c r="H23" s="8">
-        <v>73254704.603946403</v>
-      </c>
-      <c r="I23" s="8">
-        <v>161272669.18539</v>
-      </c>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="8">
-        <v>11942.763607487601</v>
-      </c>
-      <c r="C24" s="8">
-        <v>233663476.33769101</v>
-      </c>
-      <c r="D24" s="8">
-        <v>73849778.858109906</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>103389689.799615</v>
-      </c>
-      <c r="G24" s="8">
-        <v>17231614.7994528</v>
-      </c>
-      <c r="H24" s="8">
-        <v>194471083.457178</v>
-      </c>
-      <c r="I24" s="8">
-        <v>428134559.79486799</v>
-      </c>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="8">
-        <v>30664.800095579201</v>
-      </c>
-      <c r="C25" s="8">
-        <v>49317872.6901059</v>
-      </c>
-      <c r="D25" s="8">
-        <v>17001265.723649699</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1277604.0326078399</v>
-      </c>
-      <c r="F25" s="8">
-        <v>19892302.0351975</v>
-      </c>
-      <c r="G25" s="8">
-        <v>2874610.3143767901</v>
-      </c>
-      <c r="H25" s="8">
-        <v>41045782.105831802</v>
-      </c>
-      <c r="I25" s="8">
-        <v>90363654.795937702</v>
-      </c>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="8">
-        <v>100000</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1360707280.93116</v>
-      </c>
-      <c r="D26" s="8">
-        <v>627295820.55128098</v>
-      </c>
-      <c r="E26" s="8">
-        <v>47139782.541037701</v>
-      </c>
-      <c r="F26" s="8">
-        <v>733966414.13169706</v>
-      </c>
-      <c r="G26" s="8">
-        <v>106064509.910815</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1514466527.13483</v>
-      </c>
-      <c r="I26" s="8">
-        <v>2875173808.06599</v>
-      </c>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="8">
-        <v>7376.4128163894002</v>
-      </c>
-      <c r="C27" s="8">
-        <v>28093581.304467399</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <v>28093581.304467399</v>
-      </c>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="8">
-        <v>5409.3693986855596</v>
-      </c>
-      <c r="C28" s="8">
-        <v>17699413.399346899</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
-        <v>17699413.399346899</v>
-      </c>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="8">
-        <v>4004.3383860399599</v>
-      </c>
-      <c r="C29" s="8">
-        <v>18492579.855480701</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-      <c r="H29" s="8">
-        <v>0</v>
-      </c>
-      <c r="I29" s="8">
-        <v>18492579.855480701</v>
-      </c>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="8">
-        <v>354091.77472204203</v>
-      </c>
-      <c r="C30" s="8">
-        <v>931612203.55445004</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8">
-        <v>0</v>
-      </c>
-      <c r="I30" s="8">
-        <v>931612203.55445004</v>
-      </c>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="8">
-        <v>421.50930379367998</v>
-      </c>
-      <c r="C31" s="8">
-        <v>640766.37104970496</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8">
-        <v>0</v>
-      </c>
-      <c r="I31" s="8">
-        <v>640766.37104970496</v>
-      </c>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="8">
-        <v>20710.157126396101</v>
-      </c>
-      <c r="C32" s="8">
-        <v>193103918.05677199</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0</v>
-      </c>
-      <c r="I32" s="8">
-        <v>193103918.05677199</v>
-      </c>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="8">
-        <v>421.50930379367998</v>
-      </c>
-      <c r="C33" s="8">
-        <v>2264092.6783230002</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <v>2264092.6783230002</v>
-      </c>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="8">
-        <v>18616.6609175542</v>
-      </c>
-      <c r="C34" s="8">
-        <v>35607815.451540202</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8">
-        <v>35607815.451540202</v>
-      </c>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="8">
-        <v>2165.2875194880799</v>
-      </c>
-      <c r="C35" s="8">
-        <v>51347892.767319001</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8">
-        <v>51347892.767319001</v>
-      </c>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="8">
-        <v>4215.0930379368001</v>
-      </c>
-      <c r="C36" s="8">
-        <v>2176334.27084208</v>
-      </c>
-      <c r="D36" s="8">
-        <v>7017638.9113512496</v>
-      </c>
-      <c r="E36" s="8">
-        <v>3741276.2873681099</v>
-      </c>
-      <c r="F36" s="8">
-        <v>876381.05691882595</v>
-      </c>
-      <c r="G36" s="8">
-        <v>3305648.7140200501</v>
-      </c>
-      <c r="H36" s="8">
-        <v>14940944.9696582</v>
-      </c>
-      <c r="I36" s="8">
-        <v>17117279.240500301</v>
-      </c>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="8">
-        <v>8430.1860758736002</v>
-      </c>
-      <c r="C37" s="8">
-        <v>9475507.1368899196</v>
-      </c>
-      <c r="D37" s="8">
-        <v>30553984.9182835</v>
-      </c>
-      <c r="E37" s="8">
-        <v>16289084.187087599</v>
-      </c>
-      <c r="F37" s="8">
-        <v>3815663.2683341</v>
-      </c>
-      <c r="G37" s="8">
-        <v>14392410.0857195</v>
-      </c>
-      <c r="H37" s="8">
-        <v>65051142.459424801</v>
-      </c>
-      <c r="I37" s="8">
-        <v>74526649.596314698</v>
-      </c>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="8">
-        <v>17141.378354276301</v>
-      </c>
-      <c r="C38" s="8">
-        <v>67941909.468371406</v>
-      </c>
-      <c r="D38" s="8">
-        <v>219080218.70743999</v>
-      </c>
-      <c r="E38" s="8">
-        <v>116797070.41402601</v>
-      </c>
-      <c r="F38" s="8">
-        <v>27359313.587839998</v>
-      </c>
-      <c r="G38" s="8">
-        <v>103197411.63338301</v>
-      </c>
-      <c r="H38" s="8">
-        <v>466434014.34268898</v>
-      </c>
-      <c r="I38" s="8">
-        <v>534375923.81106102</v>
-      </c>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="8">
-        <v>3934.0868354076802</v>
-      </c>
-      <c r="C39" s="8">
-        <v>42752778.796714097</v>
-      </c>
-      <c r="D39" s="8">
-        <v>0</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8">
-        <v>0</v>
-      </c>
-      <c r="I39" s="8">
-        <v>42752778.796714097</v>
-      </c>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="8">
-        <v>241500</v>
-      </c>
-      <c r="C40" s="8">
-        <v>2698038626.3502698</v>
-      </c>
-      <c r="D40" s="8">
-        <v>1129743132.9377</v>
-      </c>
-      <c r="E40" s="8">
-        <v>16774973.791283401</v>
-      </c>
-      <c r="F40" s="8">
-        <v>805198742.05909097</v>
-      </c>
-      <c r="G40" s="8">
-        <v>161758675.909091</v>
-      </c>
-      <c r="H40" s="8">
-        <v>2113475524.69717</v>
-      </c>
-      <c r="I40" s="8">
-        <v>4811514151.04743</v>
-      </c>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="8">
-        <v>487.54576138802298</v>
-      </c>
-      <c r="C41" s="8">
-        <v>135900.24138198001</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0</v>
-      </c>
-      <c r="E41" s="8">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8">
-        <v>0</v>
-      </c>
-      <c r="I41" s="8">
-        <v>135900.24138198001</v>
-      </c>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="8">
-        <v>894070.40943183796</v>
-      </c>
-      <c r="C42" s="8">
-        <v>3408024.5655899998</v>
-      </c>
-      <c r="D42" s="8">
-        <v>62024591.3947495</v>
-      </c>
-      <c r="E42" s="8">
-        <v>33066839.8944709</v>
-      </c>
-      <c r="F42" s="8">
-        <v>7745794.4240842704</v>
-      </c>
-      <c r="G42" s="8">
-        <v>29216591.4686937</v>
-      </c>
-      <c r="H42" s="8">
-        <v>132053817.181998</v>
-      </c>
-      <c r="I42" s="8">
-        <v>135461841.74758801</v>
-      </c>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="8">
-        <v>1523.05361770783</v>
-      </c>
-      <c r="C43" s="8">
-        <v>12342437.3380189</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0</v>
-      </c>
-      <c r="E43" s="8">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8">
-        <v>0</v>
-      </c>
-      <c r="I43" s="8">
-        <v>12342437.3380189</v>
-      </c>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="8">
-        <v>11825.3378201541</v>
-      </c>
-      <c r="C44" s="8">
-        <v>6168010.4674088201</v>
-      </c>
-      <c r="D44" s="8">
-        <v>0</v>
-      </c>
-      <c r="E44" s="8">
-        <v>0</v>
-      </c>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0</v>
-      </c>
-      <c r="H44" s="8">
-        <v>0</v>
-      </c>
-      <c r="I44" s="8">
-        <v>6168010.4674088201</v>
-      </c>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="8">
-        <v>1250.4776012545799</v>
-      </c>
-      <c r="C45" s="8">
-        <v>15498414.9428245</v>
-      </c>
-      <c r="D45" s="8">
-        <v>0</v>
-      </c>
-      <c r="E45" s="8">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0</v>
-      </c>
-      <c r="G45" s="8">
-        <v>0</v>
-      </c>
-      <c r="H45" s="8">
-        <v>0</v>
-      </c>
-      <c r="I45" s="8">
-        <v>15498414.9428245</v>
-      </c>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" s="8">
-        <v>2498.60692026469</v>
-      </c>
-      <c r="C46" s="8">
-        <v>0</v>
-      </c>
-      <c r="D46" s="8">
-        <v>12067845.5215261</v>
-      </c>
-      <c r="E46" s="8">
-        <v>6433666.4028013898</v>
-      </c>
-      <c r="F46" s="8">
-        <v>1507064.74912471</v>
-      </c>
-      <c r="G46" s="8">
-        <v>5684540.8962423299</v>
-      </c>
-      <c r="H46" s="8">
-        <v>25693117.569694601</v>
-      </c>
-      <c r="I46" s="8">
-        <v>25693117.569694601</v>
-      </c>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="7">
-        <f t="shared" ref="B47:I47" si="0">SUM(B7:B46)</f>
-        <v>3071482.1432736879</v>
-      </c>
-      <c r="C47" s="7">
-        <f t="shared" si="0"/>
-        <v>15183196565.635405</v>
-      </c>
-      <c r="D47" s="7">
-        <f t="shared" si="0"/>
-        <v>2687081726.6890497</v>
-      </c>
-      <c r="E47" s="7">
-        <f t="shared" si="0"/>
-        <v>268606227.72811681</v>
-      </c>
-      <c r="F47" s="7">
-        <f t="shared" si="0"/>
-        <v>2416103986.3846855</v>
-      </c>
-      <c r="G47" s="7">
-        <f t="shared" si="0"/>
-        <v>587776308.4969002</v>
-      </c>
-      <c r="H47" s="7">
-        <f t="shared" si="0"/>
-        <v>5959568249.2987566</v>
-      </c>
-      <c r="I47" s="7">
-        <f t="shared" si="0"/>
-        <v>21142764814.934147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C51" s="6">
-        <f>C40/$I40*100</f>
-        <v>56.074627272226294</v>
-      </c>
-      <c r="D51" s="6">
-        <f t="shared" ref="D51:I51" si="1">D40/$I40*100</f>
-        <v>23.479991900091647</v>
-      </c>
-      <c r="E51" s="6">
-        <f t="shared" si="1"/>
-        <v>0.34864230395397711</v>
-      </c>
-      <c r="F51" s="6">
-        <f t="shared" si="1"/>
-        <v>16.734830591401366</v>
-      </c>
-      <c r="G51" s="6">
-        <f t="shared" si="1"/>
-        <v>3.3619079323268202</v>
-      </c>
-      <c r="H51" s="6">
-        <f t="shared" si="1"/>
-        <v>43.925372727773905</v>
-      </c>
-      <c r="I51" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:M27"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="66.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="10.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:13" ht="66" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>199.2</v>
-      </c>
-      <c r="F7" s="8">
-        <v>395.1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>138.6</v>
-      </c>
-      <c r="M7" s="8">
-        <f t="shared" ref="M7:M23" si="0">SUM(B7:L7)</f>
-        <v>732.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="F8" s="8">
-        <v>149.9</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <f t="shared" si="0"/>
-        <v>218.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>69.5</v>
-      </c>
-      <c r="F9" s="8">
-        <v>46</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <f t="shared" si="0"/>
-        <v>115.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>163.30000000000001</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1066.8</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <f t="shared" si="0"/>
-        <v>1230.0999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>141.1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>730</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <f t="shared" si="0"/>
-        <v>871.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>120</v>
-      </c>
-      <c r="F12" s="8">
-        <v>319.39999999999998</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <f t="shared" si="0"/>
-        <v>439.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>60.1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>158.5</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <f t="shared" si="0"/>
-        <v>218.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>55.7</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1326.5</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>276.3</v>
-      </c>
-      <c r="M14" s="8">
-        <f t="shared" si="0"/>
-        <v>1658.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>129.80000000000001</v>
-      </c>
-      <c r="F15" s="8">
-        <v>889.6</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <f t="shared" si="0"/>
-        <v>1019.4000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>74.3</v>
-      </c>
-      <c r="F16" s="8">
-        <v>102.5</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8">
-        <f t="shared" si="0"/>
-        <v>176.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="8">
-        <v>38007.800000000003</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2828.5</v>
-      </c>
-      <c r="D17" s="8">
-        <v>19987.5</v>
-      </c>
-      <c r="E17" s="8">
-        <v>7406.2</v>
-      </c>
-      <c r="F17" s="8">
-        <v>14627.6</v>
-      </c>
-      <c r="G17" s="8">
-        <v>8310.2000000000007</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>2705.8</v>
-      </c>
-      <c r="J17" s="8">
-        <v>3988.9</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>7251.5</v>
-      </c>
-      <c r="M17" s="8">
-        <f t="shared" si="0"/>
-        <v>105114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="8">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>13856.3</v>
-      </c>
-      <c r="E18" s="8">
-        <v>97.3</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1926.7</v>
-      </c>
-      <c r="G18" s="8">
-        <v>13634.1</v>
-      </c>
-      <c r="H18" s="8">
-        <v>827.8</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>1608.1</v>
-      </c>
-      <c r="K18" s="8">
-        <v>40980.199999999997</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1242</v>
-      </c>
-      <c r="M18" s="8">
-        <f t="shared" si="0"/>
-        <v>74172.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1304</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>334.7</v>
-      </c>
-      <c r="E19" s="8">
-        <v>10924.8</v>
-      </c>
-      <c r="F19" s="8">
-        <v>30271</v>
-      </c>
-      <c r="G19" s="8">
-        <v>694.9</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1839.4</v>
-      </c>
-      <c r="I19" s="8">
-        <v>627.70000000000005</v>
-      </c>
-      <c r="J19" s="8">
-        <v>640.29999999999995</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>13440.7</v>
-      </c>
-      <c r="M19" s="8">
-        <f t="shared" si="0"/>
-        <v>60077.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="8">
-        <v>208070</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>22807.7</v>
-      </c>
-      <c r="F20" s="8">
-        <v>2365.8000000000002</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <v>706.1</v>
-      </c>
-      <c r="I20" s="8">
-        <v>6945.1</v>
-      </c>
-      <c r="J20" s="8">
-        <v>132.19999999999999</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>6649.1</v>
-      </c>
-      <c r="M20" s="8">
-        <f t="shared" si="0"/>
-        <v>247676.00000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
-        <v>21655.599999999999</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>473.8</v>
-      </c>
-      <c r="M21" s="8">
-        <f t="shared" si="0"/>
-        <v>22129.399999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
-        <v>918.4</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <v>2098.6</v>
-      </c>
-      <c r="F22" s="8">
-        <v>-1405.3</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1163.3</v>
-      </c>
-      <c r="H22" s="8">
-        <v>-73.400000000000006</v>
-      </c>
-      <c r="I22" s="8">
-        <v>4281.2</v>
-      </c>
-      <c r="J22" s="8">
-        <v>-2245.6</v>
-      </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
-        <f t="shared" si="0"/>
-        <v>4737.1999999999989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="7">
-        <f t="shared" ref="B23:L23" si="1">SUM(B7:B22)</f>
-        <v>247381.8</v>
-      </c>
-      <c r="C23" s="7">
-        <f t="shared" si="1"/>
-        <v>25402.5</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="1"/>
-        <v>34178.5</v>
-      </c>
-      <c r="E23" s="7">
-        <f t="shared" si="1"/>
-        <v>44416.499999999993</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="1"/>
-        <v>52970.100000000006</v>
-      </c>
-      <c r="G23" s="7">
-        <f t="shared" si="1"/>
-        <v>23802.500000000004</v>
-      </c>
-      <c r="H23" s="7">
-        <f t="shared" si="1"/>
-        <v>3299.8999999999996</v>
-      </c>
-      <c r="I23" s="7">
-        <f t="shared" si="1"/>
-        <v>14559.8</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="1"/>
-        <v>4123.8999999999996</v>
-      </c>
-      <c r="K23" s="7">
-        <f t="shared" si="1"/>
-        <v>40980.199999999997</v>
-      </c>
-      <c r="L23" s="7">
-        <f t="shared" si="1"/>
-        <v>29471.999999999996</v>
-      </c>
-      <c r="M23" s="7">
-        <f t="shared" si="0"/>
-        <v>520587.70000000007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>